--- a/Testdata/TestData.xlsx
+++ b/Testdata/TestData.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="1291">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="1251">
   <x:si>
     <x:t>TestCaseId</x:t>
   </x:si>
@@ -3805,126 +3805,6 @@
   </x:si>
   <x:si>
     <x:t>Flag status - disabled</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for AuthorizePayment started 05/28/2024 12:59:04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for AuthorizePayment ended 05/28/2024 12:59:14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for CancelPayment started 05/28/2024 12:59:15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for CancelPayment ended 05/28/2024 12:59:33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for CreateCustomer started 05/28/2024 12:59:34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for CreateCustomer ended 05/28/2024 12:59:40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for CreatePayment_ACH started 05/28/2024 12:59:40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for CreatePayment_ACH ended 05/28/2024 12:59:53</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for CreatePayment_Card started 05/28/2024 12:59:54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for CreatePayment_Card ended 05/28/2024 13:00:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for CreatePayment_Token started 05/28/2024 13:00:03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for CreatePayment_Token ended 05/28/2024 13:00:08</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for CreatePayment_Vault started 05/28/2024 13:00:09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for CreatePayment_Vault ended 05/28/2024 13:00:15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for CreatePaymentMethod_ACH started 05/28/2024 13:00:16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for CreatePaymentMethod_ACH ended 05/28/2024 13:00:24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for CreatePaymentMethod_Card started 05/28/2024 13:00:24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for CreatePaymentMethod_Card ended 05/28/2024 13:00:32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for CreateSubscription_ACH started 05/28/2024 13:00:33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for CreateSubscription_ACH ended 05/28/2024 13:00:38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for CreateSubscription_Card started 05/28/2024 13:00:39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for CreateSubscription_Card ended 05/28/2024 13:00:48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for CreateSubscription_Token started 05/28/2024 13:00:49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for CreateSubscription_Token ended 05/28/2024 13:00:53</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for CreateSubscription_Vault started 05/28/2024 13:00:54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for CreateSubscription_Vault ended 05/28/2024 13:01:01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for GenerateTokenCard started 05/28/2024 13:01:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for GenerateTokenCard ended 05/28/2024 13:01:14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for Get Customer started 05/28/2024 13:01:14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for Get Customer ended 05/28/2024 13:01:33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for ModifyCustomer started 05/28/2024 13:01:34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for ModifyCustomer ended 05/28/2024 13:01:51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for ModifyPaymentMethod_Card started 05/28/2024 13:01:52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for ModifyPaymentMethod_Card ended 05/28/2024 13:02:06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for RefundPayment_Refund started 05/28/2024 13:02:07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for RefundPayment_Refund ended 05/28/2024 13:02:20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for RefundPayment_StandaloneRefund started 05/28/2024 13:02:21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for RefundPayment_StandaloneRefund ended 05/28/2024 13:02:34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for CreateReport_CCTransaction started 05/28/2024 13:02:35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for CreateReport_CCTransaction ended 05/28/2024 13:02:46</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -14029,12 +13909,6 @@
       <x:c r="C74" s="0" t="s">
         <x:v>236</x:v>
       </x:c>
-      <x:c r="D74" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E74" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F74" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14049,12 +13923,6 @@
       <x:c r="C75" s="0" t="s">
         <x:v>263</x:v>
       </x:c>
-      <x:c r="D75" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E75" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F75" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14069,12 +13937,6 @@
       <x:c r="C76" s="0" t="s">
         <x:v>265</x:v>
       </x:c>
-      <x:c r="D76" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E76" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F76" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14089,12 +13951,6 @@
       <x:c r="C77" s="0" t="s">
         <x:v>270</x:v>
       </x:c>
-      <x:c r="D77" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E77" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F77" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14109,12 +13965,6 @@
       <x:c r="C78" s="0" t="s">
         <x:v>217</x:v>
       </x:c>
-      <x:c r="D78" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E78" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F78" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14129,12 +13979,6 @@
       <x:c r="C79" s="0" t="s">
         <x:v>178</x:v>
       </x:c>
-      <x:c r="D79" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E79" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F79" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14149,12 +13993,6 @@
       <x:c r="C80" s="0" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="D80" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E80" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F80" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14169,12 +14007,6 @@
       <x:c r="C81" s="0" t="s">
         <x:v>246</x:v>
       </x:c>
-      <x:c r="D81" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E81" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F81" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14189,12 +14021,6 @@
       <x:c r="C82" s="0" t="s">
         <x:v>200</x:v>
       </x:c>
-      <x:c r="D82" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E82" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F82" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14209,12 +14035,6 @@
       <x:c r="C83" s="0" t="s">
         <x:v>645</x:v>
       </x:c>
-      <x:c r="D83" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E83" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F83" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14229,12 +14049,6 @@
       <x:c r="C84" s="0" t="s">
         <x:v>249</x:v>
       </x:c>
-      <x:c r="D84" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E84" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F84" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14249,12 +14063,6 @@
       <x:c r="C85" s="0" t="s">
         <x:v>231</x:v>
       </x:c>
-      <x:c r="D85" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E85" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F85" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14269,12 +14077,6 @@
       <x:c r="C86" s="0" t="s">
         <x:v>182</x:v>
       </x:c>
-      <x:c r="D86" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E86" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F86" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14289,12 +14091,6 @@
       <x:c r="C87" s="0" t="s">
         <x:v>278</x:v>
       </x:c>
-      <x:c r="D87" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E87" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F87" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14309,12 +14105,6 @@
       <x:c r="C88" s="0" t="s">
         <x:v>651</x:v>
       </x:c>
-      <x:c r="D88" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E88" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F88" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14329,12 +14119,6 @@
       <x:c r="C89" s="0" t="s">
         <x:v>653</x:v>
       </x:c>
-      <x:c r="D89" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E89" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F89" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14349,12 +14133,6 @@
       <x:c r="C90" s="0" t="s">
         <x:v>655</x:v>
       </x:c>
-      <x:c r="D90" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E90" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F90" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14369,12 +14147,6 @@
       <x:c r="C91" s="0" t="s">
         <x:v>657</x:v>
       </x:c>
-      <x:c r="D91" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E91" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F91" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14389,12 +14161,6 @@
       <x:c r="C92" s="0" t="s">
         <x:v>659</x:v>
       </x:c>
-      <x:c r="D92" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E92" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F92" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14409,12 +14175,6 @@
       <x:c r="C93" s="0" t="s">
         <x:v>661</x:v>
       </x:c>
-      <x:c r="D93" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E93" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F93" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14429,12 +14189,6 @@
       <x:c r="C94" s="0" t="s">
         <x:v>663</x:v>
       </x:c>
-      <x:c r="D94" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E94" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F94" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14449,12 +14203,6 @@
       <x:c r="C95" s="0" t="s">
         <x:v>665</x:v>
       </x:c>
-      <x:c r="D95" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E95" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F95" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14469,12 +14217,6 @@
       <x:c r="C96" s="0" t="s">
         <x:v>667</x:v>
       </x:c>
-      <x:c r="D96" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E96" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F96" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14489,12 +14231,6 @@
       <x:c r="C97" s="0" t="s">
         <x:v>669</x:v>
       </x:c>
-      <x:c r="D97" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E97" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F97" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14509,12 +14245,6 @@
       <x:c r="C98" s="0" t="s">
         <x:v>671</x:v>
       </x:c>
-      <x:c r="D98" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E98" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F98" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14529,12 +14259,6 @@
       <x:c r="C99" s="0" t="s">
         <x:v>674</x:v>
       </x:c>
-      <x:c r="D99" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E99" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F99" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14549,12 +14273,6 @@
       <x:c r="C100" s="0" t="s">
         <x:v>676</x:v>
       </x:c>
-      <x:c r="D100" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E100" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F100" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14569,12 +14287,6 @@
       <x:c r="C101" s="0" t="s">
         <x:v>678</x:v>
       </x:c>
-      <x:c r="D101" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E101" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F101" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14589,12 +14301,6 @@
       <x:c r="C102" s="0" t="s">
         <x:v>680</x:v>
       </x:c>
-      <x:c r="D102" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E102" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F102" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14609,12 +14315,6 @@
       <x:c r="C103" s="0" t="s">
         <x:v>682</x:v>
       </x:c>
-      <x:c r="D103" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E103" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F103" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14629,12 +14329,6 @@
       <x:c r="C104" s="0" t="s">
         <x:v>684</x:v>
       </x:c>
-      <x:c r="D104" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E104" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F104" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14649,12 +14343,6 @@
       <x:c r="C105" s="0" t="s">
         <x:v>686</x:v>
       </x:c>
-      <x:c r="D105" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E105" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F105" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14669,12 +14357,6 @@
       <x:c r="C106" s="0" t="s">
         <x:v>688</x:v>
       </x:c>
-      <x:c r="D106" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E106" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F106" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14689,12 +14371,6 @@
       <x:c r="C107" s="0" t="s">
         <x:v>690</x:v>
       </x:c>
-      <x:c r="D107" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E107" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F107" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14709,12 +14385,6 @@
       <x:c r="C108" s="0" t="s">
         <x:v>692</x:v>
       </x:c>
-      <x:c r="D108" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E108" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F108" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14729,12 +14399,6 @@
       <x:c r="C109" s="0" t="s">
         <x:v>694</x:v>
       </x:c>
-      <x:c r="D109" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E109" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F109" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14749,12 +14413,6 @@
       <x:c r="C110" s="0" t="s">
         <x:v>696</x:v>
       </x:c>
-      <x:c r="D110" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E110" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F110" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14769,12 +14427,6 @@
       <x:c r="C111" s="0" t="s">
         <x:v>698</x:v>
       </x:c>
-      <x:c r="D111" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E111" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F111" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14789,12 +14441,6 @@
       <x:c r="C112" s="0" t="s">
         <x:v>700</x:v>
       </x:c>
-      <x:c r="D112" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E112" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F112" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14809,12 +14455,6 @@
       <x:c r="C113" s="0" t="s">
         <x:v>702</x:v>
       </x:c>
-      <x:c r="D113" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E113" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F113" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14829,12 +14469,6 @@
       <x:c r="C114" s="0" t="s">
         <x:v>704</x:v>
       </x:c>
-      <x:c r="D114" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E114" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F114" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14849,12 +14483,6 @@
       <x:c r="C115" s="0" t="s">
         <x:v>707</x:v>
       </x:c>
-      <x:c r="D115" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E115" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F115" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14869,12 +14497,6 @@
       <x:c r="C116" s="0" t="s">
         <x:v>709</x:v>
       </x:c>
-      <x:c r="D116" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E116" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F116" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14889,12 +14511,6 @@
       <x:c r="C117" s="0" t="s">
         <x:v>711</x:v>
       </x:c>
-      <x:c r="D117" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E117" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F117" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14909,12 +14525,6 @@
       <x:c r="C118" s="0" t="s">
         <x:v>713</x:v>
       </x:c>
-      <x:c r="D118" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E118" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F118" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14929,12 +14539,6 @@
       <x:c r="C119" s="0" t="s">
         <x:v>715</x:v>
       </x:c>
-      <x:c r="D119" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E119" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F119" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14949,12 +14553,6 @@
       <x:c r="C120" s="0" t="s">
         <x:v>717</x:v>
       </x:c>
-      <x:c r="D120" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E120" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F120" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14969,12 +14567,6 @@
       <x:c r="C121" s="0" t="s">
         <x:v>719</x:v>
       </x:c>
-      <x:c r="D121" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E121" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F121" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -14989,12 +14581,6 @@
       <x:c r="C122" s="0" t="s">
         <x:v>721</x:v>
       </x:c>
-      <x:c r="D122" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E122" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F122" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -15009,12 +14595,6 @@
       <x:c r="C123" s="0" t="s">
         <x:v>723</x:v>
       </x:c>
-      <x:c r="D123" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E123" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F123" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -15029,12 +14609,6 @@
       <x:c r="C124" s="0" t="s">
         <x:v>725</x:v>
       </x:c>
-      <x:c r="D124" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E124" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F124" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -15049,12 +14623,6 @@
       <x:c r="C125" s="0" t="s">
         <x:v>727</x:v>
       </x:c>
-      <x:c r="D125" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E125" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F125" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -15069,12 +14637,6 @@
       <x:c r="C126" s="0" t="s">
         <x:v>729</x:v>
       </x:c>
-      <x:c r="D126" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E126" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F126" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -15089,12 +14651,6 @@
       <x:c r="C127" s="0" t="s">
         <x:v>731</x:v>
       </x:c>
-      <x:c r="D127" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E127" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F127" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -15109,12 +14665,6 @@
       <x:c r="C128" s="0" t="s">
         <x:v>733</x:v>
       </x:c>
-      <x:c r="D128" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E128" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F128" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -15129,12 +14679,6 @@
       <x:c r="C129" s="0" t="s">
         <x:v>735</x:v>
       </x:c>
-      <x:c r="D129" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="E129" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
       <x:c r="F129" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
@@ -15149,12 +14693,6 @@
       <x:c r="C130" s="0" t="s">
         <x:v>738</x:v>
       </x:c>
-      <x:c r="D130" s="0" t="s">
-        <x:v>1251</x:v>
-      </x:c>
-      <x:c r="E130" s="0" t="s">
-        <x:v>1252</x:v>
-      </x:c>
       <x:c r="F130" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -15169,12 +14707,6 @@
       <x:c r="C131" s="0" t="s">
         <x:v>740</x:v>
       </x:c>
-      <x:c r="D131" s="0" t="s">
-        <x:v>1253</x:v>
-      </x:c>
-      <x:c r="E131" s="0" t="s">
-        <x:v>1254</x:v>
-      </x:c>
       <x:c r="F131" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -15189,12 +14721,6 @@
       <x:c r="C132" s="0" t="s">
         <x:v>742</x:v>
       </x:c>
-      <x:c r="D132" s="0" t="s">
-        <x:v>1255</x:v>
-      </x:c>
-      <x:c r="E132" s="0" t="s">
-        <x:v>1256</x:v>
-      </x:c>
       <x:c r="F132" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -15209,12 +14735,6 @@
       <x:c r="C133" s="0" t="s">
         <x:v>744</x:v>
       </x:c>
-      <x:c r="D133" s="0" t="s">
-        <x:v>1257</x:v>
-      </x:c>
-      <x:c r="E133" s="0" t="s">
-        <x:v>1258</x:v>
-      </x:c>
       <x:c r="F133" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -15229,12 +14749,6 @@
       <x:c r="C134" s="0" t="s">
         <x:v>746</x:v>
       </x:c>
-      <x:c r="D134" s="0" t="s">
-        <x:v>1259</x:v>
-      </x:c>
-      <x:c r="E134" s="0" t="s">
-        <x:v>1260</x:v>
-      </x:c>
       <x:c r="F134" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -15249,12 +14763,6 @@
       <x:c r="C135" s="0" t="s">
         <x:v>748</x:v>
       </x:c>
-      <x:c r="D135" s="0" t="s">
-        <x:v>1261</x:v>
-      </x:c>
-      <x:c r="E135" s="0" t="s">
-        <x:v>1262</x:v>
-      </x:c>
       <x:c r="F135" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -15269,12 +14777,6 @@
       <x:c r="C136" s="0" t="s">
         <x:v>750</x:v>
       </x:c>
-      <x:c r="D136" s="0" t="s">
-        <x:v>1263</x:v>
-      </x:c>
-      <x:c r="E136" s="0" t="s">
-        <x:v>1264</x:v>
-      </x:c>
       <x:c r="F136" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -15289,12 +14791,6 @@
       <x:c r="C137" s="0" t="s">
         <x:v>752</x:v>
       </x:c>
-      <x:c r="D137" s="0" t="s">
-        <x:v>1265</x:v>
-      </x:c>
-      <x:c r="E137" s="0" t="s">
-        <x:v>1266</x:v>
-      </x:c>
       <x:c r="F137" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -15309,12 +14805,6 @@
       <x:c r="C138" s="0" t="s">
         <x:v>754</x:v>
       </x:c>
-      <x:c r="D138" s="0" t="s">
-        <x:v>1267</x:v>
-      </x:c>
-      <x:c r="E138" s="0" t="s">
-        <x:v>1268</x:v>
-      </x:c>
       <x:c r="F138" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -15329,12 +14819,6 @@
       <x:c r="C139" s="0" t="s">
         <x:v>756</x:v>
       </x:c>
-      <x:c r="D139" s="0" t="s">
-        <x:v>1269</x:v>
-      </x:c>
-      <x:c r="E139" s="0" t="s">
-        <x:v>1270</x:v>
-      </x:c>
       <x:c r="F139" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -15349,12 +14833,6 @@
       <x:c r="C140" s="0" t="s">
         <x:v>758</x:v>
       </x:c>
-      <x:c r="D140" s="0" t="s">
-        <x:v>1271</x:v>
-      </x:c>
-      <x:c r="E140" s="0" t="s">
-        <x:v>1272</x:v>
-      </x:c>
       <x:c r="F140" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -15369,12 +14847,6 @@
       <x:c r="C141" s="0" t="s">
         <x:v>760</x:v>
       </x:c>
-      <x:c r="D141" s="0" t="s">
-        <x:v>1273</x:v>
-      </x:c>
-      <x:c r="E141" s="0" t="s">
-        <x:v>1274</x:v>
-      </x:c>
       <x:c r="F141" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -15389,12 +14861,6 @@
       <x:c r="C142" s="0" t="s">
         <x:v>762</x:v>
       </x:c>
-      <x:c r="D142" s="0" t="s">
-        <x:v>1275</x:v>
-      </x:c>
-      <x:c r="E142" s="0" t="s">
-        <x:v>1276</x:v>
-      </x:c>
       <x:c r="F142" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -15409,12 +14875,6 @@
       <x:c r="C143" s="0" t="s">
         <x:v>764</x:v>
       </x:c>
-      <x:c r="D143" s="0" t="s">
-        <x:v>1277</x:v>
-      </x:c>
-      <x:c r="E143" s="0" t="s">
-        <x:v>1278</x:v>
-      </x:c>
       <x:c r="F143" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -15429,12 +14889,6 @@
       <x:c r="C144" s="0" t="s">
         <x:v>766</x:v>
       </x:c>
-      <x:c r="D144" s="0" t="s">
-        <x:v>1279</x:v>
-      </x:c>
-      <x:c r="E144" s="0" t="s">
-        <x:v>1280</x:v>
-      </x:c>
       <x:c r="F144" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -15449,12 +14903,6 @@
       <x:c r="C145" s="0" t="s">
         <x:v>768</x:v>
       </x:c>
-      <x:c r="D145" s="0" t="s">
-        <x:v>1281</x:v>
-      </x:c>
-      <x:c r="E145" s="0" t="s">
-        <x:v>1282</x:v>
-      </x:c>
       <x:c r="F145" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -15469,12 +14917,6 @@
       <x:c r="C146" s="0" t="s">
         <x:v>770</x:v>
       </x:c>
-      <x:c r="D146" s="0" t="s">
-        <x:v>1283</x:v>
-      </x:c>
-      <x:c r="E146" s="0" t="s">
-        <x:v>1284</x:v>
-      </x:c>
       <x:c r="F146" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -15489,12 +14931,6 @@
       <x:c r="C147" s="0" t="s">
         <x:v>772</x:v>
       </x:c>
-      <x:c r="D147" s="0" t="s">
-        <x:v>1285</x:v>
-      </x:c>
-      <x:c r="E147" s="0" t="s">
-        <x:v>1286</x:v>
-      </x:c>
       <x:c r="F147" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -15509,12 +14945,6 @@
       <x:c r="C148" s="0" t="s">
         <x:v>774</x:v>
       </x:c>
-      <x:c r="D148" s="0" t="s">
-        <x:v>1287</x:v>
-      </x:c>
-      <x:c r="E148" s="0" t="s">
-        <x:v>1288</x:v>
-      </x:c>
       <x:c r="F148" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -15528,12 +14958,6 @@
       </x:c>
       <x:c r="C149" s="0" t="s">
         <x:v>776</x:v>
-      </x:c>
-      <x:c r="D149" s="0" t="s">
-        <x:v>1289</x:v>
-      </x:c>
-      <x:c r="E149" s="0" t="s">
-        <x:v>1290</x:v>
       </x:c>
       <x:c r="F149" s="0" t="n">
         <x:v>1</x:v>

--- a/Testdata/TestData.xlsx
+++ b/Testdata/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CustomerVault" sheetId="11" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8385" uniqueCount="1436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8415" uniqueCount="1449">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -2733,18 +2733,21 @@
     <t>OnlineForms_MediumHosted\DPP_7764.xaml</t>
   </si>
   <si>
+    <t>SimpleForm1</t>
+  </si>
+  <si>
+    <t>OnlineForms\DPP_7071.xaml</t>
+  </si>
+  <si>
+    <t>OnlineForms\DPP_7072.xaml</t>
+  </si>
+  <si>
+    <t>OnlineForms\DPP_7073.xaml</t>
+  </si>
+  <si>
     <t>SimpleForm</t>
   </si>
   <si>
-    <t>OnlineForms\DPP_7071.xaml</t>
-  </si>
-  <si>
-    <t>OnlineForms\DPP_7072.xaml</t>
-  </si>
-  <si>
-    <t>OnlineForms\DPP_7073.xaml</t>
-  </si>
-  <si>
     <t>OnlineForms\DPP_7074.xaml</t>
   </si>
   <si>
@@ -3909,6 +3912,36 @@
     <t>SurchargeFeeType4</t>
   </si>
   <si>
+    <t>CustAddress</t>
+  </si>
+  <si>
+    <t>CustLastName</t>
+  </si>
+  <si>
+    <t>CustZipCode</t>
+  </si>
+  <si>
+    <t>CustEmail</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>FaxPhoneCode</t>
+  </si>
+  <si>
+    <t>FaxPhoneNum</t>
+  </si>
+  <si>
+    <t>CustNotes</t>
+  </si>
+  <si>
+    <t>CardNum</t>
+  </si>
+  <si>
+    <t>CustPhoneNum</t>
+  </si>
+  <si>
     <t>Surcharge</t>
   </si>
   <si>
@@ -4018,6 +4051,12 @@
   </si>
   <si>
     <t>DPP_7918</t>
+  </si>
+  <si>
+    <t>https://payments3.deluxe.com/gateway/*</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
   <si>
     <t>DPP_7919</t>
@@ -10324,7 +10363,7 @@
         <v>712</v>
       </c>
       <c r="B2" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="C2" t="s">
         <v>754</v>
@@ -10338,7 +10377,7 @@
         <v>712</v>
       </c>
       <c r="B3" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="C3" t="s">
         <v>756</v>
@@ -10352,7 +10391,7 @@
         <v>712</v>
       </c>
       <c r="B4" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="C4" t="s">
         <v>758</v>
@@ -10366,7 +10405,7 @@
         <v>712</v>
       </c>
       <c r="B5" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="C5" t="s">
         <v>760</v>
@@ -10380,7 +10419,7 @@
         <v>712</v>
       </c>
       <c r="B6" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="C6" t="s">
         <v>762</v>
@@ -10394,7 +10433,7 @@
         <v>712</v>
       </c>
       <c r="B7" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C7" t="s">
         <v>764</v>
@@ -10408,7 +10447,7 @@
         <v>712</v>
       </c>
       <c r="B8" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C8" t="s">
         <v>766</v>
@@ -10422,7 +10461,7 @@
         <v>712</v>
       </c>
       <c r="B9" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="C9" t="s">
         <v>768</v>
@@ -10436,7 +10475,7 @@
         <v>712</v>
       </c>
       <c r="B10" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C10" t="s">
         <v>770</v>
@@ -10450,7 +10489,7 @@
         <v>712</v>
       </c>
       <c r="B11" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="C11" t="s">
         <v>772</v>
@@ -10464,7 +10503,7 @@
         <v>712</v>
       </c>
       <c r="B12" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C12" t="s">
         <v>774</v>
@@ -10716,10 +10755,10 @@
         <v>712</v>
       </c>
       <c r="B30" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C30" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="F30">
         <v>6</v>
@@ -10912,7 +10951,7 @@
         <v>712</v>
       </c>
       <c r="B44" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="C44" t="s">
         <v>600</v>
@@ -10954,10 +10993,10 @@
         <v>712</v>
       </c>
       <c r="B47" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="C47" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="F47">
         <v>2</v>
@@ -10968,10 +11007,10 @@
         <v>712</v>
       </c>
       <c r="B48" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="C48" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -10982,10 +11021,10 @@
         <v>712</v>
       </c>
       <c r="B49" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="C49" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="F49">
         <v>2</v>
@@ -10996,10 +11035,10 @@
         <v>712</v>
       </c>
       <c r="B50" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="C50" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="F50">
         <v>2</v>
@@ -11010,10 +11049,10 @@
         <v>712</v>
       </c>
       <c r="B51" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="C51" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F51">
         <v>2</v>
@@ -11024,10 +11063,10 @@
         <v>712</v>
       </c>
       <c r="B52" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="C52" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="F52">
         <v>2</v>
@@ -11052,7 +11091,7 @@
         <v>712</v>
       </c>
       <c r="B54" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="C54" t="s">
         <v>673</v>
@@ -11091,7 +11130,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B57" t="s">
         <v>605</v>
@@ -11105,7 +11144,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B58" t="s">
         <v>607</v>
@@ -11119,7 +11158,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B59" t="s">
         <v>609</v>
@@ -11133,7 +11172,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B60" t="s">
         <v>611</v>
@@ -11147,7 +11186,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B61" t="s">
         <v>613</v>
@@ -11161,7 +11200,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B62" t="s">
         <v>615</v>
@@ -11175,10 +11214,10 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B63" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="C63" t="s">
         <v>705</v>
@@ -11189,10 +11228,10 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B64" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="C64" t="s">
         <v>707</v>
@@ -11203,10 +11242,10 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B65" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="C65" t="s">
         <v>699</v>
@@ -11217,13 +11256,13 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B66" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="C66" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -11231,10 +11270,10 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B67" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="C67" t="s">
         <v>701</v>
@@ -11245,10 +11284,10 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B68" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="C68" t="s">
         <v>703</v>
@@ -11259,10 +11298,10 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B69" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="C69" t="s">
         <v>711</v>
@@ -11273,7 +11312,7 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B70" t="s">
         <v>617</v>
@@ -11287,7 +11326,7 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B71" t="s">
         <v>619</v>
@@ -11301,7 +11340,7 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B72" t="s">
         <v>621</v>
@@ -11315,7 +11354,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B73" t="s">
         <v>623</v>
@@ -11329,7 +11368,7 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B74" t="s">
         <v>625</v>
@@ -11343,7 +11382,7 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B75" t="s">
         <v>627</v>
@@ -11357,7 +11396,7 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B76" t="s">
         <v>599</v>
@@ -11371,7 +11410,7 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B77" t="s">
         <v>629</v>
@@ -11385,7 +11424,7 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B78" t="s">
         <v>631</v>
@@ -11399,7 +11438,7 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B79" t="s">
         <v>633</v>
@@ -11413,7 +11452,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B80" t="s">
         <v>635</v>
@@ -11427,7 +11466,7 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B81" t="s">
         <v>637</v>
@@ -11441,7 +11480,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B82" t="s">
         <v>639</v>
@@ -11455,7 +11494,7 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B83" t="s">
         <v>641</v>
@@ -11469,7 +11508,7 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B84" t="s">
         <v>643</v>
@@ -11483,7 +11522,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B85" t="s">
         <v>602</v>
@@ -11497,10 +11536,10 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B86" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="C86" t="s">
         <v>575</v>
@@ -11511,7 +11550,7 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B87" t="s">
         <v>648</v>
@@ -11525,7 +11564,7 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B88" t="s">
         <v>650</v>
@@ -11539,7 +11578,7 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B89" s="65" t="s">
         <v>652</v>
@@ -11553,7 +11592,7 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B90" s="65" t="s">
         <v>603</v>
@@ -11567,13 +11606,13 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B91" s="65" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="C91" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F91">
         <v>2</v>
@@ -11581,13 +11620,13 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B92" s="65" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="C92" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="F92">
         <v>2</v>
@@ -11595,7 +11634,7 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B93" s="65" t="s">
         <v>658</v>
@@ -11609,7 +11648,7 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B94" s="65" t="s">
         <v>660</v>
@@ -11623,13 +11662,13 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B95" s="65" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C95" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="F95">
         <v>2</v>
@@ -11642,7 +11681,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR17"/>
+  <dimension ref="A1:CD17"/>
   <sheetViews>
     <sheetView topLeftCell="AX6" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
@@ -11709,247 +11748,288 @@
     <col min="65" max="65" width="15" customWidth="1"/>
     <col min="66" max="66" width="20.54296875" customWidth="1"/>
     <col min="67" max="67" width="19.54296875" customWidth="1"/>
+    <col min="72" max="72" width="12.7265625" customWidth="1"/>
+    <col min="73" max="73" width="14.26953125" customWidth="1"/>
+    <col min="74" max="74" width="12.26953125" customWidth="1"/>
+    <col min="75" max="75" width="14" customWidth="1"/>
+    <col min="76" max="76" width="37.1796875" customWidth="1"/>
+    <col min="77" max="77" width="14.453125" customWidth="1"/>
+    <col min="78" max="78" width="13.81640625" customWidth="1"/>
+    <col min="82" max="82" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70">
+    <row r="1" spans="1:82">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="C1" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="D1" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="E1" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="F1" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="G1" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="H1" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="I1" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="J1" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="K1" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="L1" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="M1" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="N1" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="O1" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="P1" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="Q1" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="R1" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="S1" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="T1" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="U1" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="V1" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="W1" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="X1" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="Y1" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="Z1" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="AA1" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="AB1" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="AC1" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="AD1" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="AE1" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="AF1" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="AG1" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="AH1" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="AI1" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="AJ1" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="AK1" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="AL1" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="AM1" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="AN1" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="AO1" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="AP1" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="AQ1" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="AR1" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="AS1" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="AT1" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="AU1" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="AV1" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="AW1" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="AX1" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="AY1" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="AZ1" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="BA1" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="BB1" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="BC1" s="5" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="BD1" s="5" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="BE1" s="155" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="BF1" s="155" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="BG1" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="BH1" s="5" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="BI1" s="5" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="BJ1" s="5" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="BK1" s="5" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="BL1" s="12" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="BM1" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="BN1" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="BO1" t="s">
         <v>1</v>
       </c>
       <c r="BP1" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="BQ1" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="BR1" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="2" spans="1:70">
+        <v>1284</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>299</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:82">
       <c r="A2" t="s">
         <v>600</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="E2" t="s">
-        <v>1284</v>
+        <v>1295</v>
       </c>
       <c r="F2">
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="J2">
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>1285</v>
+        <v>1296</v>
       </c>
       <c r="L2" t="s">
-        <v>1286</v>
+        <v>1297</v>
       </c>
       <c r="M2" t="s">
         <v>177</v>
@@ -11958,10 +12038,10 @@
         <v>4</v>
       </c>
       <c r="O2" t="s">
-        <v>1287</v>
+        <v>1298</v>
       </c>
       <c r="P2" t="s">
-        <v>1288</v>
+        <v>1299</v>
       </c>
       <c r="Q2" t="s">
         <v>208</v>
@@ -11970,25 +12050,25 @@
         <v>6</v>
       </c>
       <c r="S2" t="s">
-        <v>1289</v>
+        <v>1300</v>
       </c>
       <c r="T2" t="s">
-        <v>1290</v>
+        <v>1301</v>
       </c>
       <c r="U2">
         <v>10</v>
       </c>
       <c r="V2" t="s">
-        <v>1291</v>
+        <v>1302</v>
       </c>
       <c r="W2" t="s">
-        <v>1292</v>
+        <v>1303</v>
       </c>
       <c r="X2" t="s">
-        <v>1293</v>
+        <v>1304</v>
       </c>
       <c r="Y2" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="Z2" t="s">
         <v>267</v>
@@ -11997,37 +12077,37 @@
         <v>208</v>
       </c>
       <c r="AB2" t="s">
-        <v>1295</v>
+        <v>1306</v>
       </c>
       <c r="AC2" t="s">
-        <v>1296</v>
+        <v>1307</v>
       </c>
       <c r="AD2" t="s">
-        <v>1297</v>
+        <v>1308</v>
       </c>
       <c r="AE2" t="s">
-        <v>1298</v>
+        <v>1309</v>
       </c>
       <c r="AF2" t="s">
-        <v>1299</v>
+        <v>1310</v>
       </c>
       <c r="AG2" t="s">
-        <v>1300</v>
+        <v>1311</v>
       </c>
       <c r="AH2" t="s">
-        <v>1301</v>
+        <v>1312</v>
       </c>
       <c r="AI2" t="s">
-        <v>1302</v>
+        <v>1313</v>
       </c>
       <c r="AJ2" s="23" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="AK2" t="s">
-        <v>1303</v>
+        <v>1314</v>
       </c>
       <c r="AM2" t="s">
-        <v>1304</v>
+        <v>1315</v>
       </c>
       <c r="AN2" t="s">
         <v>124</v>
@@ -12042,7 +12122,7 @@
         <v>21234567876</v>
       </c>
       <c r="AR2" t="s">
-        <v>1305</v>
+        <v>1316</v>
       </c>
       <c r="AS2" t="s">
         <v>161</v>
@@ -12051,45 +12131,45 @@
         <v>162</v>
       </c>
       <c r="AV2" t="s">
-        <v>1306</v>
+        <v>1317</v>
       </c>
       <c r="AX2" t="s">
         <v>161</v>
       </c>
       <c r="AY2" t="s">
-        <v>1307</v>
+        <v>1318</v>
       </c>
       <c r="AZ2" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="3" spans="1:70">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:82">
       <c r="A3" t="s">
         <v>679</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="E3" t="s">
-        <v>1284</v>
+        <v>1295</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>1285</v>
+        <v>1296</v>
       </c>
       <c r="L3" t="s">
-        <v>1286</v>
+        <v>1297</v>
       </c>
       <c r="M3" t="s">
         <v>177</v>
@@ -12098,10 +12178,10 @@
         <v>4</v>
       </c>
       <c r="O3" t="s">
-        <v>1287</v>
+        <v>1298</v>
       </c>
       <c r="P3" t="s">
-        <v>1288</v>
+        <v>1299</v>
       </c>
       <c r="Q3" t="s">
         <v>208</v>
@@ -12110,25 +12190,25 @@
         <v>6</v>
       </c>
       <c r="S3" t="s">
-        <v>1289</v>
+        <v>1300</v>
       </c>
       <c r="T3" t="s">
-        <v>1290</v>
+        <v>1301</v>
       </c>
       <c r="U3">
         <v>10</v>
       </c>
       <c r="V3" t="s">
-        <v>1291</v>
+        <v>1302</v>
       </c>
       <c r="W3" t="s">
-        <v>1292</v>
+        <v>1303</v>
       </c>
       <c r="X3" t="s">
-        <v>1293</v>
+        <v>1304</v>
       </c>
       <c r="Y3" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="Z3" t="s">
         <v>267</v>
@@ -12137,37 +12217,37 @@
         <v>208</v>
       </c>
       <c r="AB3" t="s">
-        <v>1295</v>
+        <v>1306</v>
       </c>
       <c r="AC3" t="s">
-        <v>1296</v>
+        <v>1307</v>
       </c>
       <c r="AD3" t="s">
-        <v>1297</v>
+        <v>1308</v>
       </c>
       <c r="AE3" t="s">
-        <v>1298</v>
+        <v>1309</v>
       </c>
       <c r="AF3" t="s">
-        <v>1299</v>
+        <v>1310</v>
       </c>
       <c r="AG3" t="s">
-        <v>1300</v>
+        <v>1311</v>
       </c>
       <c r="AH3" t="s">
-        <v>1301</v>
+        <v>1312</v>
       </c>
       <c r="AI3" t="s">
-        <v>1302</v>
+        <v>1313</v>
       </c>
       <c r="AJ3" s="23" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="AK3" t="s">
-        <v>1303</v>
+        <v>1314</v>
       </c>
       <c r="AM3" t="s">
-        <v>1304</v>
+        <v>1315</v>
       </c>
       <c r="AN3" t="s">
         <v>124</v>
@@ -12182,7 +12262,7 @@
         <v>21234567876</v>
       </c>
       <c r="AR3" t="s">
-        <v>1305</v>
+        <v>1316</v>
       </c>
       <c r="AS3" t="s">
         <v>161</v>
@@ -12191,30 +12271,30 @@
         <v>162</v>
       </c>
       <c r="AV3" t="s">
-        <v>1306</v>
+        <v>1317</v>
       </c>
       <c r="AX3" t="s">
         <v>161</v>
       </c>
       <c r="AY3" t="s">
-        <v>1307</v>
+        <v>1318</v>
       </c>
       <c r="AZ3" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:70">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:82">
       <c r="A4" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="E4" t="s">
-        <v>1284</v>
+        <v>1295</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -12226,16 +12306,16 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>1285</v>
+        <v>1296</v>
       </c>
       <c r="L4" t="s">
-        <v>1286</v>
+        <v>1297</v>
       </c>
       <c r="M4" t="s">
         <v>177</v>
@@ -12244,10 +12324,10 @@
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>1287</v>
+        <v>1298</v>
       </c>
       <c r="P4" t="s">
-        <v>1288</v>
+        <v>1299</v>
       </c>
       <c r="Q4" t="s">
         <v>208</v>
@@ -12256,25 +12336,25 @@
         <v>6</v>
       </c>
       <c r="S4" t="s">
-        <v>1289</v>
+        <v>1300</v>
       </c>
       <c r="T4" t="s">
-        <v>1290</v>
+        <v>1301</v>
       </c>
       <c r="U4">
         <v>10</v>
       </c>
       <c r="V4" t="s">
-        <v>1291</v>
+        <v>1302</v>
       </c>
       <c r="W4" t="s">
-        <v>1292</v>
+        <v>1303</v>
       </c>
       <c r="X4" t="s">
-        <v>1293</v>
+        <v>1304</v>
       </c>
       <c r="Y4" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="Z4" t="s">
         <v>267</v>
@@ -12283,37 +12363,37 @@
         <v>208</v>
       </c>
       <c r="AB4" t="s">
-        <v>1295</v>
+        <v>1306</v>
       </c>
       <c r="AC4" t="s">
-        <v>1296</v>
+        <v>1307</v>
       </c>
       <c r="AD4" t="s">
-        <v>1297</v>
+        <v>1308</v>
       </c>
       <c r="AE4" t="s">
-        <v>1298</v>
+        <v>1309</v>
       </c>
       <c r="AF4" t="s">
-        <v>1299</v>
+        <v>1310</v>
       </c>
       <c r="AG4" t="s">
-        <v>1300</v>
+        <v>1311</v>
       </c>
       <c r="AH4" t="s">
-        <v>1301</v>
+        <v>1312</v>
       </c>
       <c r="AI4" t="s">
-        <v>1302</v>
+        <v>1313</v>
       </c>
       <c r="AJ4" s="23" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="AK4" t="s">
-        <v>1303</v>
+        <v>1314</v>
       </c>
       <c r="AM4" t="s">
-        <v>1304</v>
+        <v>1315</v>
       </c>
       <c r="AN4" t="s">
         <v>124</v>
@@ -12328,7 +12408,7 @@
         <v>21234567876</v>
       </c>
       <c r="AR4" t="s">
-        <v>1305</v>
+        <v>1316</v>
       </c>
       <c r="AS4" t="s">
         <v>161</v>
@@ -12337,45 +12417,45 @@
         <v>162</v>
       </c>
       <c r="AV4" t="s">
-        <v>1306</v>
+        <v>1317</v>
       </c>
       <c r="AX4" t="s">
         <v>161</v>
       </c>
       <c r="AY4" t="s">
-        <v>1307</v>
+        <v>1318</v>
       </c>
       <c r="AZ4" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="5" spans="1:70">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:82">
       <c r="A5" t="s">
-        <v>1309</v>
+        <v>1320</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="E5" t="s">
-        <v>1284</v>
+        <v>1295</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
       <c r="AJ5" s="23" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="AK5" t="s">
-        <v>1303</v>
+        <v>1314</v>
       </c>
       <c r="AL5" t="s">
         <v>108</v>
       </c>
       <c r="AM5" t="s">
-        <v>1304</v>
+        <v>1315</v>
       </c>
       <c r="AN5" t="s">
         <v>124</v>
@@ -12393,30 +12473,30 @@
         <v>161</v>
       </c>
       <c r="AY5" t="s">
-        <v>1307</v>
+        <v>1318</v>
       </c>
       <c r="AZ5" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="6" spans="1:70">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:82">
       <c r="A6" t="s">
         <v>889</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="E6" t="s">
-        <v>1284</v>
+        <v>1295</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>1310</v>
+        <v>1321</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -12440,16 +12520,16 @@
         <v>2</v>
       </c>
       <c r="AJ6" s="23" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="AK6" t="s">
-        <v>1303</v>
+        <v>1314</v>
       </c>
       <c r="AL6" t="s">
         <v>108</v>
       </c>
       <c r="AM6" t="s">
-        <v>1304</v>
+        <v>1315</v>
       </c>
       <c r="AN6" t="s">
         <v>124</v>
@@ -12473,28 +12553,28 @@
         <v>163</v>
       </c>
       <c r="AW6" s="1" t="s">
-        <v>1311</v>
+        <v>1322</v>
       </c>
       <c r="AX6" t="s">
         <v>161</v>
       </c>
       <c r="AY6" t="s">
-        <v>1307</v>
+        <v>1318</v>
       </c>
       <c r="AZ6" t="s">
-        <v>1308</v>
+        <v>1319</v>
       </c>
       <c r="BC6" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="BD6" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="BE6" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="BF6" s="5" t="s">
         <v>988</v>
-      </c>
-      <c r="BD6" s="5" t="s">
-        <v>979</v>
-      </c>
-      <c r="BE6" s="5" t="s">
-        <v>992</v>
-      </c>
-      <c r="BF6" s="5" t="s">
-        <v>987</v>
       </c>
       <c r="BG6" s="5" t="s">
         <v>177</v>
@@ -12503,24 +12583,24 @@
         <v>177</v>
       </c>
       <c r="BI6" s="5" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="BJ6" s="5" t="s">
         <v>108</v>
       </c>
       <c r="BK6" s="5" t="s">
-        <v>1312</v>
+        <v>1323</v>
       </c>
       <c r="BL6" s="12" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:70">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:82">
       <c r="A7" s="12" t="s">
-        <v>1313</v>
+        <v>1324</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1314</v>
+        <v>1325</v>
       </c>
       <c r="C7" s="191"/>
       <c r="D7" s="12"/>
@@ -12573,83 +12653,149 @@
       <c r="AY7" s="12"/>
       <c r="AZ7" s="12"/>
     </row>
-    <row r="8" spans="1:70">
+    <row r="8" spans="1:82">
       <c r="A8" s="12" t="s">
-        <v>1315</v>
+        <v>1326</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1314</v>
+        <v>1325</v>
       </c>
       <c r="E8" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="9" spans="1:70">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:82">
       <c r="A9" s="12" t="s">
-        <v>1316</v>
+        <v>1327</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>183</v>
       </c>
       <c r="BM9" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:70">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:82">
       <c r="A10" s="12" t="s">
-        <v>1318</v>
+        <v>1329</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1319</v>
+        <v>1330</v>
       </c>
       <c r="E10" t="s">
-        <v>1284</v>
+        <v>1295</v>
       </c>
       <c r="F10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:70">
+    <row r="11" spans="1:82">
       <c r="A11" t="s">
-        <v>1320</v>
+        <v>1331</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="12" spans="1:70">
+      <c r="BT11" t="s">
+        <v>124</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>108</v>
+      </c>
+      <c r="BV11">
+        <v>12234</v>
+      </c>
+      <c r="BW11" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="BX11" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>126</v>
+      </c>
+      <c r="BZ11">
+        <v>1234567854</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>1333</v>
+      </c>
+      <c r="CB11" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="CC11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="CD11">
+        <v>1223456733</v>
+      </c>
+    </row>
+    <row r="12" spans="1:82">
       <c r="A12" t="s">
-        <v>1321</v>
+        <v>1334</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="13" spans="1:70">
+      <c r="BT12" t="s">
+        <v>124</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>108</v>
+      </c>
+      <c r="BV12">
+        <v>12234</v>
+      </c>
+      <c r="BW12" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="BX12" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>126</v>
+      </c>
+      <c r="BZ12">
+        <v>1234567854</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>1333</v>
+      </c>
+      <c r="CB12" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="CC12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="CD12">
+        <v>1223456733</v>
+      </c>
+    </row>
+    <row r="13" spans="1:82">
       <c r="A13" t="s">
-        <v>1322</v>
+        <v>1335</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>183</v>
       </c>
       <c r="BN13" s="2" t="s">
-        <v>1323</v>
+        <v>1336</v>
       </c>
       <c r="BO13" s="2" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:70">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:82">
       <c r="A14" t="s">
-        <v>1324</v>
+        <v>1337</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:70">
+    <row r="15" spans="1:82">
       <c r="A15" t="s">
-        <v>1325</v>
+        <v>1338</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>118</v>
@@ -12658,9 +12804,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:70">
+    <row r="16" spans="1:82">
       <c r="A16" t="s">
-        <v>1326</v>
+        <v>1339</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>183</v>
@@ -12669,24 +12815,24 @@
         <v>196</v>
       </c>
       <c r="E16" t="s">
-        <v>1284</v>
+        <v>1295</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>1327</v>
+        <v>1340</v>
       </c>
       <c r="BP16" t="s">
-        <v>1328</v>
+        <v>1341</v>
       </c>
       <c r="BQ16" t="s">
-        <v>1329</v>
+        <v>1342</v>
       </c>
       <c r="BR16" t="s">
-        <v>1330</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="17" spans="1:68">
       <c r="A17" t="s">
-        <v>1331</v>
+        <v>1344</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>183</v>
@@ -12695,18 +12841,22 @@
         <v>196</v>
       </c>
       <c r="E17" t="s">
-        <v>1284</v>
+        <v>1295</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>1332</v>
+        <v>1345</v>
       </c>
       <c r="BP17" t="s">
-        <v>1328</v>
+        <v>1341</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="AW6" r:id="rId1"/>
+    <hyperlink ref="BW11" r:id="rId2"/>
+    <hyperlink ref="BW12" r:id="rId3"/>
+    <hyperlink ref="BX11" r:id="rId4"/>
+    <hyperlink ref="BX12" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12730,267 +12880,267 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>1333</v>
+        <v>1346</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>1334</v>
+        <v>1347</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>1335</v>
+        <v>1348</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>1336</v>
+        <v>1349</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>1337</v>
+        <v>1350</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>1310</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="12" t="s">
-        <v>1338</v>
+        <v>1351</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>1339</v>
+        <v>1352</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>118</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>1340</v>
+        <v>1353</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12" t="s">
-        <v>1341</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
-        <v>1342</v>
+        <v>1355</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>1339</v>
+        <v>1352</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>118</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>1340</v>
+        <v>1353</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12" t="s">
-        <v>1341</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="101.5">
       <c r="A4" s="12" t="s">
-        <v>1343</v>
+        <v>1356</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>1339</v>
+        <v>1352</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>118</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>1340</v>
+        <v>1353</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>1344</v>
+        <v>1357</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12" t="s">
-        <v>1341</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="101.5">
       <c r="A5" s="12" t="s">
-        <v>1345</v>
+        <v>1358</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>1339</v>
+        <v>1352</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>118</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>1340</v>
+        <v>1353</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>1344</v>
+        <v>1357</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>1346</v>
+        <v>1359</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12" t="s">
-        <v>1341</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="101.5">
       <c r="A6" s="12" t="s">
-        <v>1347</v>
+        <v>1360</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>1339</v>
+        <v>1352</v>
       </c>
       <c r="C6" s="35" t="s">
         <v>118</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>1340</v>
+        <v>1353</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="38" t="s">
-        <v>1348</v>
+        <v>1361</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>1341</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="12" t="s">
-        <v>1349</v>
+        <v>1362</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>1339</v>
+        <v>1352</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>118</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>1340</v>
+        <v>1353</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12" t="s">
-        <v>1341</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="12" t="s">
-        <v>1350</v>
+        <v>1363</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>1339</v>
+        <v>1352</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>118</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>1340</v>
+        <v>1353</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12" t="s">
-        <v>1341</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="101.5">
       <c r="A9" s="12" t="s">
-        <v>1351</v>
+        <v>1364</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>1339</v>
+        <v>1352</v>
       </c>
       <c r="C9" s="35" t="s">
         <v>118</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>1340</v>
+        <v>1353</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>1344</v>
+        <v>1357</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12" t="s">
-        <v>1341</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="101.5">
       <c r="A10" s="12" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>1352</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>1339</v>
       </c>
       <c r="C10" s="35" t="s">
         <v>118</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>1340</v>
+        <v>1353</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>1344</v>
+        <v>1357</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>1346</v>
+        <v>1359</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12" t="s">
-        <v>1341</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="101.5">
       <c r="A11" s="12" t="s">
-        <v>1353</v>
+        <v>1366</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>1339</v>
+        <v>1352</v>
       </c>
       <c r="C11" s="35" t="s">
         <v>118</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>1340</v>
+        <v>1353</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="38" t="s">
-        <v>1348</v>
+        <v>1361</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>1341</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="101.5">
       <c r="A12" s="12" t="s">
-        <v>1354</v>
+        <v>1367</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>1339</v>
+        <v>1352</v>
       </c>
       <c r="C12" s="35" t="s">
         <v>118</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>1340</v>
+        <v>1353</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>1344</v>
+        <v>1357</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>1346</v>
+        <v>1359</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>1348</v>
+        <v>1361</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>1341</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -13074,10 +13224,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1356</v>
+        <v>1369</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>103</v>
@@ -13087,10 +13237,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1357</v>
+        <v>1370</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>113</v>
@@ -13100,10 +13250,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1358</v>
+        <v>1371</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>142</v>
@@ -13113,10 +13263,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1359</v>
+        <v>1372</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>145</v>
@@ -13126,10 +13276,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1360</v>
+        <v>1373</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>148</v>
@@ -13139,10 +13289,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1361</v>
+        <v>1374</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>148</v>
@@ -13152,131 +13302,131 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="B8" t="s">
-        <v>1362</v>
+        <v>1375</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="B9" t="s">
-        <v>1363</v>
+        <v>1376</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="B10" t="s">
-        <v>1364</v>
+        <v>1377</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="B11" t="s">
-        <v>1365</v>
+        <v>1378</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="B12" t="s">
-        <v>1366</v>
+        <v>1379</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="B13" t="s">
-        <v>1367</v>
+        <v>1380</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="B14" t="s">
-        <v>1368</v>
+        <v>1381</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="B15" t="s">
-        <v>1369</v>
+        <v>1382</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="B16" t="s">
-        <v>1370</v>
+        <v>1383</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="17" spans="1:29">
       <c r="A17" s="5" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="B17" t="s">
-        <v>1371</v>
+        <v>1384</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="18" spans="1:29">
       <c r="A18" s="5" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="B18" t="s">
-        <v>1372</v>
+        <v>1385</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="19" spans="1:29">
       <c r="A19" s="5" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="B19" t="s">
-        <v>1373</v>
+        <v>1386</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>653</v>
@@ -13284,62 +13434,62 @@
     </row>
     <row r="20" spans="1:29">
       <c r="A20" s="5" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="B20" t="s">
-        <v>1374</v>
+        <v>1387</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="21" spans="1:29">
       <c r="A21" s="5" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="B21" t="s">
-        <v>1375</v>
+        <v>1388</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="22" spans="1:29">
       <c r="A22" s="5" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="B22" t="s">
-        <v>1376</v>
+        <v>1389</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="23" spans="1:29">
       <c r="A23" s="5" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="B23" t="s">
-        <v>1377</v>
+        <v>1390</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="24" spans="1:29">
       <c r="A24" s="5" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="B24" t="s">
-        <v>1378</v>
+        <v>1391</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="26" spans="1:29">
       <c r="A26" s="5" t="s">
-        <v>1379</v>
+        <v>1392</v>
       </c>
       <c r="B26" s="12">
         <v>6280888815760050</v>
@@ -13445,7 +13595,7 @@
     <row r="2" spans="1:5">
       <c r="A2" s="8"/>
       <c r="B2" s="8" t="s">
-        <v>1380</v>
+        <v>1393</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>653</v>
@@ -13455,65 +13605,65 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1381</v>
+        <v>1394</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1382</v>
+        <v>1395</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1383</v>
+        <v>1396</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1384</v>
+        <v>1397</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1385</v>
+        <v>1398</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -13521,23 +13671,23 @@
     <row r="8" spans="1:5">
       <c r="A8" s="8"/>
       <c r="B8" s="8" t="s">
-        <v>1386</v>
+        <v>1399</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1387</v>
+        <v>1400</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -13545,23 +13695,23 @@
     <row r="10" spans="1:5">
       <c r="A10" s="8"/>
       <c r="B10" s="8" t="s">
-        <v>1388</v>
+        <v>1401</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1389</v>
+        <v>1402</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -13569,59 +13719,59 @@
     <row r="12" spans="1:5">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
-        <v>1390</v>
+        <v>1403</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="8" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1391</v>
+        <v>1404</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="8" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>1392</v>
+        <v>1405</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="8" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>1393</v>
+        <v>1406</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="8" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="B16" t="s">
-        <v>1394</v>
+        <v>1407</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>735</v>
@@ -13629,40 +13779,40 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="8" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="B17" t="s">
-        <v>1395</v>
+        <v>1408</v>
       </c>
       <c r="C17" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B60" t="s">
         <v>629</v>
       </c>
       <c r="C60" t="s">
-        <v>1396</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B62" t="s">
         <v>650</v>
       </c>
       <c r="C62" t="s">
-        <v>1397</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="5" t="s">
-        <v>1398</v>
+        <v>1411</v>
       </c>
       <c r="B64" t="s">
         <v>605</v>
@@ -13673,21 +13823,21 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B65" t="s">
-        <v>1399</v>
+        <v>1412</v>
       </c>
       <c r="C65" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B66" t="s">
         <v>1202</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1201</v>
       </c>
       <c r="C66" t="s">
         <v>673</v>
@@ -13695,21 +13845,21 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B67" t="s">
         <v>648</v>
       </c>
       <c r="C67" t="s">
-        <v>1400</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="12" t="s">
-        <v>1401</v>
+        <v>1414</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>754</v>
@@ -13717,10 +13867,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="12" t="s">
-        <v>1401</v>
+        <v>1414</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>764</v>
@@ -13728,7 +13878,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="B70" t="s">
         <v>743</v>
@@ -13739,7 +13889,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="B71" t="s">
         <v>751</v>
@@ -13750,7 +13900,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>1402</v>
+        <v>1415</v>
       </c>
       <c r="B72" s="12" t="s">
         <v>776</v>
@@ -13761,7 +13911,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="12" t="s">
-        <v>1402</v>
+        <v>1415</v>
       </c>
       <c r="B73" s="12" t="s">
         <v>782</v>
@@ -13772,15 +13922,15 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>1399</v>
+        <v>1412</v>
       </c>
       <c r="B78" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B79" t="s">
         <v>673</v>
@@ -13791,7 +13941,7 @@
         <v>648</v>
       </c>
       <c r="B80" t="s">
-        <v>1400</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -13812,7 +13962,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="12" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="B83" s="12" t="s">
         <v>754</v>
@@ -13820,7 +13970,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="12" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B84" s="12" t="s">
         <v>764</v>
@@ -13828,22 +13978,22 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>1403</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>1404</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="65" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>1405</v>
+        <v>1418</v>
       </c>
     </row>
   </sheetData>
@@ -13856,7 +14006,7 @@
   <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -13961,10 +14111,10 @@
         <v>310</v>
       </c>
       <c r="B2" t="s">
-        <v>1406</v>
+        <v>1419</v>
       </c>
       <c r="C2" s="221" t="s">
-        <v>1407</v>
+        <v>1420</v>
       </c>
       <c r="D2" t="s">
         <v>311</v>
@@ -13985,10 +14135,10 @@
         <v>160</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1408</v>
+        <v>1421</v>
       </c>
       <c r="K2" s="222" t="s">
-        <v>1409</v>
+        <v>1422</v>
       </c>
       <c r="L2">
         <v>123</v>
@@ -14003,7 +14153,7 @@
         <v>124</v>
       </c>
       <c r="P2" s="221" t="s">
-        <v>1410</v>
+        <v>1423</v>
       </c>
       <c r="Q2" t="s">
         <v>106</v>
@@ -14012,7 +14162,7 @@
         <v>121</v>
       </c>
       <c r="V2" s="221" t="s">
-        <v>1411</v>
+        <v>1424</v>
       </c>
       <c r="Z2" t="s">
         <v>271</v>
@@ -14021,13 +14171,13 @@
         <v>315</v>
       </c>
       <c r="AB2" s="221" t="s">
-        <v>1412</v>
+        <v>1425</v>
       </c>
       <c r="AC2" s="221" t="s">
-        <v>1413</v>
+        <v>1426</v>
       </c>
       <c r="AD2" s="221" t="s">
-        <v>1414</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -14038,7 +14188,7 @@
         <v>322</v>
       </c>
       <c r="C3" s="221" t="s">
-        <v>1407</v>
+        <v>1420</v>
       </c>
       <c r="D3" t="s">
         <v>311</v>
@@ -14059,7 +14209,7 @@
         <v>160</v>
       </c>
       <c r="K3" s="222" t="s">
-        <v>1409</v>
+        <v>1422</v>
       </c>
       <c r="L3">
         <v>123</v>
@@ -14074,7 +14224,7 @@
         <v>124</v>
       </c>
       <c r="P3" s="221" t="s">
-        <v>1410</v>
+        <v>1423</v>
       </c>
       <c r="Q3" t="s">
         <v>106</v>
@@ -14083,16 +14233,16 @@
         <v>121</v>
       </c>
       <c r="S3" s="221" t="s">
-        <v>1415</v>
+        <v>1428</v>
       </c>
       <c r="T3" t="s">
         <v>150</v>
       </c>
       <c r="U3" s="221" t="s">
-        <v>1416</v>
+        <v>1429</v>
       </c>
       <c r="W3" s="221" t="s">
-        <v>1417</v>
+        <v>1430</v>
       </c>
       <c r="Z3" t="s">
         <v>271</v>
@@ -14101,7 +14251,7 @@
         <v>315</v>
       </c>
       <c r="AB3" s="221" t="s">
-        <v>1412</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -14109,10 +14259,10 @@
         <v>323</v>
       </c>
       <c r="B4" t="s">
-        <v>1418</v>
+        <v>1431</v>
       </c>
       <c r="C4" s="221" t="s">
-        <v>1407</v>
+        <v>1420</v>
       </c>
       <c r="D4" t="s">
         <v>311</v>
@@ -14130,10 +14280,10 @@
         <v>314</v>
       </c>
       <c r="I4" s="221" t="s">
-        <v>1419</v>
+        <v>1432</v>
       </c>
       <c r="K4" s="222" t="s">
-        <v>1409</v>
+        <v>1422</v>
       </c>
       <c r="L4">
         <v>123</v>
@@ -14148,7 +14298,7 @@
         <v>124</v>
       </c>
       <c r="P4" s="221" t="s">
-        <v>1410</v>
+        <v>1423</v>
       </c>
       <c r="Q4" t="s">
         <v>106</v>
@@ -14157,22 +14307,22 @@
         <v>121</v>
       </c>
       <c r="S4" s="221" t="s">
-        <v>1416</v>
+        <v>1429</v>
       </c>
       <c r="T4" t="s">
         <v>150</v>
       </c>
       <c r="U4" s="221" t="s">
-        <v>1420</v>
+        <v>1433</v>
       </c>
       <c r="W4" s="221" t="s">
-        <v>1421</v>
+        <v>1434</v>
       </c>
       <c r="X4" t="s">
         <v>324</v>
       </c>
       <c r="Y4" s="221" t="s">
-        <v>1422</v>
+        <v>1435</v>
       </c>
       <c r="Z4" t="s">
         <v>271</v>
@@ -14181,7 +14331,7 @@
         <v>315</v>
       </c>
       <c r="AB4" s="221" t="s">
-        <v>1412</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -14189,10 +14339,10 @@
         <v>325</v>
       </c>
       <c r="B5" t="s">
-        <v>1406</v>
+        <v>1419</v>
       </c>
       <c r="C5" s="221" t="s">
-        <v>1407</v>
+        <v>1420</v>
       </c>
       <c r="D5" t="s">
         <v>311</v>
@@ -14213,7 +14363,7 @@
         <v>160</v>
       </c>
       <c r="K5" s="222" t="s">
-        <v>1409</v>
+        <v>1422</v>
       </c>
       <c r="L5">
         <v>123</v>
@@ -14228,7 +14378,7 @@
         <v>124</v>
       </c>
       <c r="P5" s="221" t="s">
-        <v>1410</v>
+        <v>1423</v>
       </c>
       <c r="Q5" t="s">
         <v>106</v>
@@ -14237,16 +14387,16 @@
         <v>121</v>
       </c>
       <c r="S5" s="221" t="s">
-        <v>1415</v>
+        <v>1428</v>
       </c>
       <c r="T5" t="s">
         <v>150</v>
       </c>
       <c r="U5" s="221" t="s">
-        <v>1423</v>
+        <v>1436</v>
       </c>
       <c r="W5" s="221" t="s">
-        <v>1417</v>
+        <v>1430</v>
       </c>
       <c r="Z5" t="s">
         <v>271</v>
@@ -14255,7 +14405,7 @@
         <v>315</v>
       </c>
       <c r="AB5" s="221" t="s">
-        <v>1412</v>
+        <v>1425</v>
       </c>
     </row>
   </sheetData>
@@ -20826,8 +20976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DU48"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="CI1" workbookViewId="0">
+      <selection activeCell="CK3" sqref="CK3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -21274,10 +21424,10 @@
         <v>390</v>
       </c>
       <c r="F3" s="112" t="s">
-        <v>391</v>
+        <v>535</v>
       </c>
       <c r="G3" s="112" t="s">
-        <v>392</v>
+        <v>536</v>
       </c>
       <c r="H3" s="112"/>
       <c r="I3" s="112"/>
@@ -21360,7 +21510,9 @@
       <c r="CH3" s="112"/>
       <c r="CI3" s="112"/>
       <c r="CJ3" s="112"/>
-      <c r="CK3" s="112"/>
+      <c r="CK3" t="s">
+        <v>537</v>
+      </c>
       <c r="CL3" s="112"/>
       <c r="CM3" s="112"/>
       <c r="CN3" s="112"/>
@@ -21489,17 +21641,17 @@
         <v>394</v>
       </c>
       <c r="C5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D5" s="106" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="E5" s="43"/>
-      <c r="F5" s="43" t="s">
-        <v>397</v>
+      <c r="F5" s="108" t="s">
+        <v>535</v>
       </c>
       <c r="G5" t="s">
-        <v>398</v>
+        <v>536</v>
       </c>
       <c r="H5" s="43"/>
       <c r="I5" s="43" t="s">
@@ -21591,16 +21743,16 @@
         <v>0</v>
       </c>
       <c r="AM5" s="43" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="AN5" s="43" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
       <c r="AO5" s="43">
         <v>8104</v>
       </c>
-      <c r="AP5" s="43">
-        <v>8546223351</v>
+      <c r="AP5">
+        <v>8546223354</v>
       </c>
       <c r="AQ5" s="43" t="s">
         <v>194</v>
@@ -21666,7 +21818,9 @@
       <c r="CH5" s="43"/>
       <c r="CI5" s="43"/>
       <c r="CJ5" s="43"/>
-      <c r="CK5" s="43"/>
+      <c r="CK5" t="s">
+        <v>537</v>
+      </c>
       <c r="CL5" s="43"/>
       <c r="CM5" s="43"/>
       <c r="CN5" s="43"/>
@@ -21684,19 +21838,19 @@
         <v>394</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D6" s="106" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="E6" s="120" t="s">
         <v>409</v>
       </c>
-      <c r="F6" s="112" t="s">
-        <v>391</v>
+      <c r="F6" s="108" t="s">
+        <v>535</v>
       </c>
       <c r="G6" t="s">
-        <v>398</v>
+        <v>536</v>
       </c>
       <c r="H6" s="112"/>
       <c r="I6" s="112" t="s">
@@ -21784,16 +21938,16 @@
       </c>
       <c r="AL6" s="112"/>
       <c r="AM6" s="112" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="AN6" s="112" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
       <c r="AO6" s="112">
         <v>8104</v>
       </c>
-      <c r="AP6" s="112">
-        <v>8546223351</v>
+      <c r="AP6">
+        <v>8546223354</v>
       </c>
       <c r="AQ6" s="112" t="s">
         <v>194</v>
@@ -21859,7 +22013,9 @@
       <c r="CH6" s="112"/>
       <c r="CI6" s="112"/>
       <c r="CJ6" s="112"/>
-      <c r="CK6" s="112"/>
+      <c r="CK6" t="s">
+        <v>537</v>
+      </c>
       <c r="CL6" s="112"/>
       <c r="CM6" s="112"/>
       <c r="CN6" s="112"/>
@@ -28585,8 +28741,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="A160" sqref="A160"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="A167" sqref="A167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -30867,10 +31023,10 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="B163" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C163" t="s">
         <v>423</v>
@@ -30881,7 +31037,7 @@
         <v>892</v>
       </c>
       <c r="B164" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C164" t="s">
         <v>439</v>
@@ -30892,7 +31048,7 @@
         <v>892</v>
       </c>
       <c r="B165" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C165" t="s">
         <v>393</v>
@@ -30903,7 +31059,7 @@
         <v>892</v>
       </c>
       <c r="B166" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C166" t="s">
         <v>428</v>
@@ -30914,7 +31070,7 @@
         <v>892</v>
       </c>
       <c r="B167" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C167" t="s">
         <v>441</v>
@@ -30922,10 +31078,10 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="B168" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C168" t="s">
         <v>455</v>
@@ -30933,10 +31089,10 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="B169" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C169" t="s">
         <v>458</v>
@@ -30947,18 +31103,18 @@
         <v>892</v>
       </c>
       <c r="B170" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C170" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="B171" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C171" t="s">
         <v>445</v>
@@ -30966,10 +31122,10 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="B172" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C172" t="s">
         <v>443</v>
@@ -30977,10 +31133,10 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="B173" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C173" t="s">
         <v>457</v>
@@ -30988,10 +31144,10 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="B174" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C174" t="s">
         <v>452</v>
@@ -31002,7 +31158,7 @@
         <v>892</v>
       </c>
       <c r="B175" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C175" t="s">
         <v>448</v>
@@ -31010,10 +31166,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="B176" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C176" t="s">
         <v>456</v>
@@ -31021,10 +31177,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="B177" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C177" t="s">
         <v>430</v>
@@ -31032,10 +31188,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="B178" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C178" t="s">
         <v>395</v>
@@ -31046,7 +31202,7 @@
         <v>892</v>
       </c>
       <c r="B179" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C179" t="s">
         <v>388</v>
@@ -31054,10 +31210,10 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="B180" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C180" t="s">
         <v>414</v>
@@ -31110,25 +31266,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="E1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="F1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="G1" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H1" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="I1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="J1" t="s">
         <v>296</v>
@@ -31137,40 +31293,40 @@
         <v>297</v>
       </c>
       <c r="L1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="M1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="N1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="O1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="P1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="Q1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="R1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="S1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="T1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="U1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="V1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="W1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="Y1" s="12"/>
       <c r="Z1" s="12"/>
@@ -31187,40 +31343,40 @@
     </row>
     <row r="2" spans="1:52">
       <c r="A2" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B2">
         <v>6280780007557770</v>
       </c>
       <c r="C2" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D2" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E2" t="s">
         <v>121</v>
       </c>
       <c r="F2" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G2" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H2" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I2">
         <v>20109</v>
       </c>
       <c r="J2" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="K2">
         <v>9198898928</v>
       </c>
       <c r="L2" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="M2">
         <v>5555555555554440</v>
@@ -31232,7 +31388,7 @@
         <v>123123123</v>
       </c>
       <c r="P2" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="Q2" t="s">
         <v>150</v>
@@ -31244,21 +31400,21 @@
         <v>38</v>
       </c>
       <c r="V2" s="224" t="s">
-        <v>1424</v>
+        <v>1437</v>
       </c>
       <c r="W2" s="225" t="s">
-        <v>1425</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="3" spans="1:52" s="27" customFormat="1">
       <c r="A3" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B3">
         <v>6280780007557770</v>
       </c>
       <c r="C3" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D3" t="s">
         <v>312</v>
@@ -31267,37 +31423,37 @@
         <v>121</v>
       </c>
       <c r="F3" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G3" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H3" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I3">
         <v>20109</v>
       </c>
       <c r="J3" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="K3">
         <v>9198898928</v>
       </c>
       <c r="L3" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="M3" s="226" t="s">
         <v>160</v>
       </c>
       <c r="N3" s="227" t="s">
-        <v>1426</v>
+        <v>1439</v>
       </c>
       <c r="O3">
         <v>123123123</v>
       </c>
       <c r="P3" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="Q3" t="s">
         <v>150</v>
@@ -31311,10 +31467,10 @@
         <v>38</v>
       </c>
       <c r="V3" s="224" t="s">
-        <v>1424</v>
+        <v>1437</v>
       </c>
       <c r="W3" s="225" t="s">
-        <v>1425</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="4" spans="1:52">
@@ -31325,7 +31481,7 @@
         <v>6280780007557770</v>
       </c>
       <c r="C4" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D4" t="s">
         <v>312</v>
@@ -31334,31 +31490,31 @@
         <v>121</v>
       </c>
       <c r="F4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G4" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H4" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I4">
         <v>20109</v>
       </c>
       <c r="J4" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="K4">
         <v>9198898928</v>
       </c>
       <c r="L4" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="M4" s="228" t="s">
         <v>180</v>
       </c>
       <c r="N4" s="227" t="s">
-        <v>1426</v>
+        <v>1439</v>
       </c>
       <c r="U4">
         <v>38</v>
@@ -31372,7 +31528,7 @@
         <v>6280780007557770</v>
       </c>
       <c r="C5" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D5" t="s">
         <v>312</v>
@@ -31381,31 +31537,31 @@
         <v>121</v>
       </c>
       <c r="F5" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G5" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H5" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I5">
         <v>20109</v>
       </c>
       <c r="J5" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="K5">
         <v>9198898928</v>
       </c>
       <c r="L5" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="M5" s="228" t="s">
         <v>202</v>
       </c>
       <c r="N5" s="227" t="s">
-        <v>1426</v>
+        <v>1439</v>
       </c>
       <c r="U5">
         <v>38</v>
@@ -31419,7 +31575,7 @@
         <v>6280780007557770</v>
       </c>
       <c r="C6" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D6" t="s">
         <v>312</v>
@@ -31428,19 +31584,19 @@
         <v>121</v>
       </c>
       <c r="F6" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G6" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H6" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I6">
         <v>20109</v>
       </c>
       <c r="J6" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="K6">
         <v>9198898928</v>
@@ -31449,16 +31605,16 @@
         <v>260</v>
       </c>
       <c r="M6" s="222" t="s">
-        <v>1420</v>
+        <v>1433</v>
       </c>
       <c r="N6" s="227" t="s">
-        <v>1426</v>
+        <v>1439</v>
       </c>
       <c r="O6">
         <v>123123123</v>
       </c>
       <c r="P6" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="Q6" t="s">
         <v>150</v>
@@ -31474,7 +31630,7 @@
         <v>6280780007557770</v>
       </c>
       <c r="C7" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D7" t="s">
         <v>312</v>
@@ -31483,31 +31639,31 @@
         <v>121</v>
       </c>
       <c r="F7" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G7" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H7" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I7">
         <v>20109</v>
       </c>
       <c r="J7" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="K7">
         <v>9198898928</v>
       </c>
       <c r="L7" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="M7" s="226" t="s">
         <v>454</v>
       </c>
       <c r="N7" s="227" t="s">
-        <v>1426</v>
+        <v>1439</v>
       </c>
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
@@ -31520,7 +31676,7 @@
         <v>6280780007557770</v>
       </c>
       <c r="C8" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D8" t="s">
         <v>312</v>
@@ -31529,31 +31685,31 @@
         <v>121</v>
       </c>
       <c r="F8" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G8" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H8" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I8">
         <v>20109</v>
       </c>
       <c r="J8" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="K8">
         <v>9198898928</v>
       </c>
       <c r="L8" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="M8" s="226" t="s">
         <v>160</v>
       </c>
       <c r="N8" s="227" t="s">
-        <v>1426</v>
+        <v>1439</v>
       </c>
       <c r="O8"/>
       <c r="P8"/>
@@ -31573,7 +31729,7 @@
         <v>6280780007557770</v>
       </c>
       <c r="C9" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D9" t="s">
         <v>312</v>
@@ -31582,19 +31738,19 @@
         <v>121</v>
       </c>
       <c r="F9" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G9" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H9" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I9">
         <v>20109</v>
       </c>
       <c r="J9" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="K9">
         <v>9198898928</v>
@@ -31603,13 +31759,13 @@
         <v>260</v>
       </c>
       <c r="M9" s="222" t="s">
-        <v>1420</v>
+        <v>1433</v>
       </c>
       <c r="O9" s="222" t="s">
-        <v>1427</v>
+        <v>1440</v>
       </c>
       <c r="P9" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="Q9" t="s">
         <v>150</v>
@@ -31618,13 +31774,13 @@
         <v>291</v>
       </c>
       <c r="U9" s="229" t="s">
-        <v>1428</v>
+        <v>1441</v>
       </c>
       <c r="V9" s="230" t="s">
-        <v>1429</v>
+        <v>1442</v>
       </c>
       <c r="W9" s="230" t="s">
-        <v>1430</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="10" spans="1:52">
@@ -31635,7 +31791,7 @@
         <v>6280780007557770</v>
       </c>
       <c r="C10" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D10" t="s">
         <v>312</v>
@@ -31644,43 +31800,43 @@
         <v>121</v>
       </c>
       <c r="F10" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G10" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H10" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I10">
         <v>20109</v>
       </c>
       <c r="J10" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="K10">
         <v>9198898928</v>
       </c>
       <c r="L10" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="M10" s="228" t="s">
         <v>180</v>
       </c>
       <c r="N10" s="227" t="s">
-        <v>1426</v>
+        <v>1439</v>
       </c>
       <c r="R10" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="U10">
         <v>38</v>
       </c>
       <c r="V10" s="224" t="s">
-        <v>1424</v>
+        <v>1437</v>
       </c>
       <c r="W10" s="225" t="s">
-        <v>1425</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="11" spans="1:52" s="18" customFormat="1">
@@ -31691,7 +31847,7 @@
         <v>6280780007557770</v>
       </c>
       <c r="C11" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D11" t="s">
         <v>312</v>
@@ -31700,37 +31856,37 @@
         <v>121</v>
       </c>
       <c r="F11" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G11" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H11" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I11">
         <v>20109</v>
       </c>
       <c r="J11" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="K11">
         <v>9198898928</v>
       </c>
       <c r="L11" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="M11" s="226" t="s">
         <v>454</v>
       </c>
       <c r="N11" s="227" t="s">
-        <v>1426</v>
+        <v>1439</v>
       </c>
       <c r="O11">
         <v>123123123</v>
       </c>
       <c r="P11" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="Q11" t="s">
         <v>150</v>
@@ -31744,10 +31900,10 @@
         <v>10</v>
       </c>
       <c r="V11" s="224" t="s">
-        <v>1424</v>
+        <v>1437</v>
       </c>
       <c r="W11" s="225" t="s">
-        <v>1425</v>
+        <v>1438</v>
       </c>
       <c r="X11" s="16"/>
       <c r="Y11" s="16"/>
@@ -31787,7 +31943,7 @@
         <v>6280780007557770</v>
       </c>
       <c r="C12" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D12" t="s">
         <v>312</v>
@@ -31796,31 +31952,31 @@
         <v>121</v>
       </c>
       <c r="F12" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G12" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H12" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I12">
         <v>20109</v>
       </c>
       <c r="J12" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="K12">
         <v>9198898928</v>
       </c>
       <c r="L12" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="M12" s="227" t="s">
         <v>160</v>
       </c>
       <c r="N12" s="227" t="s">
-        <v>1426</v>
+        <v>1439</v>
       </c>
       <c r="O12"/>
       <c r="P12"/>
@@ -31834,10 +31990,10 @@
         <v>38</v>
       </c>
       <c r="V12" s="224" t="s">
-        <v>1429</v>
+        <v>1442</v>
       </c>
       <c r="W12" s="224" t="s">
-        <v>1431</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="13" spans="1:52">
@@ -31848,7 +32004,7 @@
         <v>6280780007557770</v>
       </c>
       <c r="C13" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D13" t="s">
         <v>312</v>
@@ -31857,31 +32013,31 @@
         <v>121</v>
       </c>
       <c r="F13" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G13" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H13" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I13">
         <v>20109</v>
       </c>
       <c r="J13" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="K13">
         <v>9198898928</v>
       </c>
       <c r="L13" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="M13" s="228" t="s">
         <v>180</v>
       </c>
       <c r="N13" s="227" t="s">
-        <v>1426</v>
+        <v>1439</v>
       </c>
       <c r="R13" t="s">
         <v>276</v>
@@ -31890,10 +32046,10 @@
         <v>38</v>
       </c>
       <c r="V13" s="224" t="s">
-        <v>1424</v>
+        <v>1437</v>
       </c>
       <c r="W13" s="225" t="s">
-        <v>1425</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="14" spans="1:52">
@@ -31904,7 +32060,7 @@
         <v>6280780007557770</v>
       </c>
       <c r="C14" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D14" t="s">
         <v>312</v>
@@ -31913,37 +32069,37 @@
         <v>121</v>
       </c>
       <c r="F14" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G14" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H14" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I14">
         <v>20109</v>
       </c>
       <c r="J14" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="K14" s="231" t="s">
-        <v>1432</v>
+        <v>1445</v>
       </c>
       <c r="L14" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="M14" s="228" t="s">
         <v>128</v>
       </c>
       <c r="N14" s="227" t="s">
-        <v>1426</v>
+        <v>1439</v>
       </c>
       <c r="O14">
         <v>123123123</v>
       </c>
       <c r="P14" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="Q14" t="s">
         <v>150</v>
@@ -31955,10 +32111,10 @@
         <v>30</v>
       </c>
       <c r="V14" s="224" t="s">
-        <v>1424</v>
+        <v>1437</v>
       </c>
       <c r="W14" s="225" t="s">
-        <v>1425</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="15" spans="1:52">
@@ -31969,7 +32125,7 @@
         <v>6280780007557770</v>
       </c>
       <c r="C15" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D15" t="s">
         <v>312</v>
@@ -31978,31 +32134,31 @@
         <v>121</v>
       </c>
       <c r="F15" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G15" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H15" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I15">
         <v>20109</v>
       </c>
       <c r="J15" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="K15">
         <v>9198898928</v>
       </c>
       <c r="L15" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="M15" s="228" t="s">
         <v>202</v>
       </c>
       <c r="N15" s="227" t="s">
-        <v>1426</v>
+        <v>1439</v>
       </c>
       <c r="R15" t="s">
         <v>525</v>
@@ -32011,10 +32167,10 @@
         <v>30</v>
       </c>
       <c r="V15" s="224" t="s">
-        <v>1424</v>
+        <v>1437</v>
       </c>
       <c r="W15" s="225" t="s">
-        <v>1425</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="16" spans="1:52">
@@ -32025,7 +32181,7 @@
         <v>6280780007557770</v>
       </c>
       <c r="C16" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D16" t="s">
         <v>312</v>
@@ -32034,37 +32190,37 @@
         <v>121</v>
       </c>
       <c r="F16" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G16" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H16" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I16">
         <v>20109</v>
       </c>
       <c r="J16" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="K16">
         <v>9198898928</v>
       </c>
       <c r="L16" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="M16" s="232" t="s">
         <v>160</v>
       </c>
       <c r="N16" s="227" t="s">
-        <v>1426</v>
+        <v>1439</v>
       </c>
       <c r="O16">
         <v>123123123</v>
       </c>
       <c r="P16" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="Q16" t="s">
         <v>150</v>
@@ -32076,23 +32232,23 @@
         <v>10</v>
       </c>
       <c r="V16" s="224" t="s">
-        <v>1433</v>
+        <v>1446</v>
       </c>
       <c r="W16" s="225" t="s">
-        <v>1425</v>
+        <v>1438</v>
       </c>
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
     </row>
     <row r="17" spans="1:52" s="7" customFormat="1">
       <c r="A17" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B17">
         <v>6280780007557770</v>
       </c>
       <c r="C17" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D17" t="s">
         <v>312</v>
@@ -32101,31 +32257,31 @@
         <v>121</v>
       </c>
       <c r="F17" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G17" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H17" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I17">
         <v>20109</v>
       </c>
       <c r="J17" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="K17">
         <v>9198898928</v>
       </c>
       <c r="L17" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="M17" s="232" t="s">
         <v>128</v>
       </c>
       <c r="N17" s="227" t="s">
-        <v>1426</v>
+        <v>1439</v>
       </c>
       <c r="O17"/>
       <c r="P17"/>
@@ -32168,13 +32324,13 @@
     </row>
     <row r="18" spans="1:52" s="7" customFormat="1">
       <c r="A18" t="s">
-        <v>1434</v>
+        <v>1447</v>
       </c>
       <c r="B18">
         <v>6280780007557770</v>
       </c>
       <c r="C18" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D18" t="s">
         <v>312</v>
@@ -32183,31 +32339,31 @@
         <v>121</v>
       </c>
       <c r="F18" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G18" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H18" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I18">
         <v>20109</v>
       </c>
       <c r="J18" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="K18">
         <v>9198898928</v>
       </c>
       <c r="L18" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="M18" s="232" t="s">
         <v>128</v>
       </c>
       <c r="N18" s="227" t="s">
-        <v>1426</v>
+        <v>1439</v>
       </c>
       <c r="O18"/>
       <c r="P18"/>
@@ -32221,10 +32377,10 @@
         <v>10</v>
       </c>
       <c r="V18" s="224" t="s">
-        <v>1424</v>
+        <v>1437</v>
       </c>
       <c r="W18" s="224" t="s">
-        <v>1435</v>
+        <v>1448</v>
       </c>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
@@ -32258,13 +32414,13 @@
     </row>
     <row r="19" spans="1:52" s="7" customFormat="1">
       <c r="A19" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B19">
         <v>6280780007557770</v>
       </c>
       <c r="C19" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D19" t="s">
         <v>312</v>
@@ -32273,31 +32429,31 @@
         <v>121</v>
       </c>
       <c r="F19" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G19" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H19" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I19">
         <v>20109</v>
       </c>
       <c r="J19" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="K19">
         <v>9198898928</v>
       </c>
       <c r="L19" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="M19" s="232" t="s">
         <v>160</v>
       </c>
       <c r="N19" s="227" t="s">
-        <v>1426</v>
+        <v>1439</v>
       </c>
       <c r="O19"/>
       <c r="P19"/>
@@ -32311,10 +32467,10 @@
         <v>10</v>
       </c>
       <c r="V19" s="224" t="s">
-        <v>1424</v>
+        <v>1437</v>
       </c>
       <c r="W19" s="224" t="s">
-        <v>1435</v>
+        <v>1448</v>
       </c>
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
@@ -32348,13 +32504,13 @@
     </row>
     <row r="20" spans="1:52" s="7" customFormat="1">
       <c r="A20" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B20">
         <v>6280780007557770</v>
       </c>
       <c r="C20" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D20" t="s">
         <v>312</v>
@@ -32363,31 +32519,31 @@
         <v>121</v>
       </c>
       <c r="F20" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G20" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H20" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I20">
         <v>20109</v>
       </c>
       <c r="J20" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="K20">
         <v>9198898928</v>
       </c>
       <c r="L20" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="M20" s="226" t="s">
         <v>454</v>
       </c>
       <c r="N20" s="227" t="s">
-        <v>1426</v>
+        <v>1439</v>
       </c>
       <c r="O20"/>
       <c r="P20"/>
@@ -32401,10 +32557,10 @@
         <v>10</v>
       </c>
       <c r="V20" s="224" t="s">
-        <v>1424</v>
+        <v>1437</v>
       </c>
       <c r="W20" s="224" t="s">
-        <v>1435</v>
+        <v>1448</v>
       </c>
       <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
@@ -32438,13 +32594,13 @@
     </row>
     <row r="21" spans="1:52" s="7" customFormat="1">
       <c r="A21" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B21">
         <v>6280780007557770</v>
       </c>
       <c r="C21" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D21" t="s">
         <v>312</v>
@@ -32453,31 +32609,31 @@
         <v>121</v>
       </c>
       <c r="F21" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G21" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H21" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I21">
         <v>20109</v>
       </c>
       <c r="J21" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="K21">
         <v>9198898928</v>
       </c>
       <c r="L21" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="M21" s="232" t="s">
         <v>128</v>
       </c>
       <c r="N21" s="227" t="s">
-        <v>1426</v>
+        <v>1439</v>
       </c>
       <c r="O21"/>
       <c r="P21"/>
@@ -32491,10 +32647,10 @@
         <v>10</v>
       </c>
       <c r="V21" s="224" t="s">
-        <v>1424</v>
+        <v>1437</v>
       </c>
       <c r="W21" s="224" t="s">
-        <v>1435</v>
+        <v>1448</v>
       </c>
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
@@ -32528,13 +32684,13 @@
     </row>
     <row r="22" spans="1:52" s="7" customFormat="1">
       <c r="A22" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B22">
         <v>6280780007557770</v>
       </c>
       <c r="C22" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D22" t="s">
         <v>312</v>
@@ -32543,31 +32699,31 @@
         <v>121</v>
       </c>
       <c r="F22" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G22" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H22" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I22">
         <v>20109</v>
       </c>
       <c r="J22" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="K22">
         <v>9198898928</v>
       </c>
       <c r="L22" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="M22" s="221" t="s">
         <v>180</v>
       </c>
       <c r="N22" s="227" t="s">
-        <v>1426</v>
+        <v>1439</v>
       </c>
       <c r="O22"/>
       <c r="P22"/>
@@ -32581,10 +32737,10 @@
         <v>10</v>
       </c>
       <c r="V22" s="224" t="s">
-        <v>1424</v>
+        <v>1437</v>
       </c>
       <c r="W22" s="224" t="s">
-        <v>1435</v>
+        <v>1448</v>
       </c>
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
@@ -32618,13 +32774,13 @@
     </row>
     <row r="23" spans="1:52" s="7" customFormat="1">
       <c r="A23" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B23">
         <v>6280780007557770</v>
       </c>
       <c r="C23" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D23" t="s">
         <v>312</v>
@@ -32633,19 +32789,19 @@
         <v>121</v>
       </c>
       <c r="F23" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G23" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H23" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I23">
         <v>20109</v>
       </c>
       <c r="J23" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="K23">
         <v>9198898928</v>
@@ -32661,7 +32817,7 @@
         <v>123123123</v>
       </c>
       <c r="P23" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="Q23" t="s">
         <v>150</v>
@@ -32675,10 +32831,10 @@
         <v>10</v>
       </c>
       <c r="V23" s="224" t="s">
-        <v>1424</v>
+        <v>1437</v>
       </c>
       <c r="W23" s="224" t="s">
-        <v>1435</v>
+        <v>1448</v>
       </c>
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
@@ -32712,13 +32868,13 @@
     </row>
     <row r="24" spans="1:52" s="7" customFormat="1">
       <c r="A24" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B24">
         <v>6280780007557770</v>
       </c>
       <c r="C24" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D24" t="s">
         <v>312</v>
@@ -32727,31 +32883,31 @@
         <v>121</v>
       </c>
       <c r="F24" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G24" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H24" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I24">
         <v>20109</v>
       </c>
       <c r="J24" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="K24">
         <v>9198898928</v>
       </c>
       <c r="L24" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="M24" s="232" t="s">
         <v>160</v>
       </c>
       <c r="N24" s="227" t="s">
-        <v>1426</v>
+        <v>1439</v>
       </c>
       <c r="O24"/>
       <c r="P24"/>
@@ -32765,10 +32921,10 @@
         <v>10</v>
       </c>
       <c r="V24" s="224" t="s">
-        <v>1424</v>
+        <v>1437</v>
       </c>
       <c r="W24" s="224" t="s">
-        <v>1435</v>
+        <v>1448</v>
       </c>
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
@@ -32802,13 +32958,13 @@
     </row>
     <row r="25" spans="1:52" s="7" customFormat="1">
       <c r="A25" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B25">
         <v>6280780007557770</v>
       </c>
       <c r="C25" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D25" t="s">
         <v>312</v>
@@ -32817,37 +32973,37 @@
         <v>121</v>
       </c>
       <c r="F25" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G25" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H25" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I25">
         <v>20109</v>
       </c>
       <c r="J25" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="K25">
         <v>9198898928</v>
       </c>
       <c r="L25" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="M25" s="226" t="s">
         <v>454</v>
       </c>
       <c r="N25" s="227" t="s">
-        <v>1426</v>
+        <v>1439</v>
       </c>
       <c r="O25"/>
       <c r="P25"/>
       <c r="Q25"/>
       <c r="R25" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="S25"/>
       <c r="T25"/>
@@ -32855,10 +33011,10 @@
         <v>10</v>
       </c>
       <c r="V25" s="224" t="s">
-        <v>1424</v>
+        <v>1437</v>
       </c>
       <c r="W25" s="224" t="s">
-        <v>1435</v>
+        <v>1448</v>
       </c>
       <c r="X25" s="12"/>
       <c r="Y25" s="16"/>
@@ -32892,13 +33048,13 @@
     </row>
     <row r="26" spans="1:52" s="7" customFormat="1">
       <c r="A26" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B26">
         <v>6280780007557770</v>
       </c>
       <c r="C26" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D26" t="s">
         <v>312</v>
@@ -32907,31 +33063,31 @@
         <v>121</v>
       </c>
       <c r="F26" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G26" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H26" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I26">
         <v>20109</v>
       </c>
       <c r="J26" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="K26">
         <v>9198898928</v>
       </c>
       <c r="L26" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="M26" s="232" t="s">
         <v>128</v>
       </c>
       <c r="N26" s="227" t="s">
-        <v>1426</v>
+        <v>1439</v>
       </c>
       <c r="O26"/>
       <c r="P26"/>
@@ -32976,13 +33132,13 @@
     </row>
     <row r="27" spans="1:52" s="7" customFormat="1">
       <c r="A27" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B27">
         <v>6280780007557770</v>
       </c>
       <c r="C27" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D27" t="s">
         <v>312</v>
@@ -32991,31 +33147,31 @@
         <v>121</v>
       </c>
       <c r="F27" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G27" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H27" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I27">
         <v>20109</v>
       </c>
       <c r="J27" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="K27">
         <v>9198898928</v>
       </c>
       <c r="L27" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="M27" s="232" t="s">
         <v>160</v>
       </c>
       <c r="N27" s="227" t="s">
-        <v>1426</v>
+        <v>1439</v>
       </c>
       <c r="O27"/>
       <c r="P27"/>
@@ -33060,13 +33216,13 @@
     </row>
     <row r="28" spans="1:52" s="7" customFormat="1">
       <c r="A28" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B28">
         <v>6280780007557770</v>
       </c>
       <c r="C28" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D28" t="s">
         <v>312</v>
@@ -33075,31 +33231,31 @@
         <v>121</v>
       </c>
       <c r="F28" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G28" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H28" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I28">
         <v>20109</v>
       </c>
       <c r="J28" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="K28">
         <v>9198898928</v>
       </c>
       <c r="L28" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="M28" s="226" t="s">
         <v>454</v>
       </c>
       <c r="N28" s="227" t="s">
-        <v>1426</v>
+        <v>1439</v>
       </c>
       <c r="O28"/>
       <c r="P28"/>
@@ -33144,13 +33300,13 @@
     </row>
     <row r="29" spans="1:52" s="7" customFormat="1">
       <c r="A29" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B29">
         <v>6280780007557770</v>
       </c>
       <c r="C29" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D29" t="s">
         <v>312</v>
@@ -33159,31 +33315,31 @@
         <v>121</v>
       </c>
       <c r="F29" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G29" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H29" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I29">
         <v>20109</v>
       </c>
       <c r="J29" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="K29">
         <v>9198898928</v>
       </c>
       <c r="L29" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="M29" s="232" t="s">
         <v>128</v>
       </c>
       <c r="N29" s="227" t="s">
-        <v>1426</v>
+        <v>1439</v>
       </c>
       <c r="O29"/>
       <c r="P29"/>
@@ -33228,13 +33384,13 @@
     </row>
     <row r="30" spans="1:52" s="7" customFormat="1">
       <c r="A30" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B30">
         <v>6280780007557770</v>
       </c>
       <c r="C30" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D30" t="s">
         <v>312</v>
@@ -33243,31 +33399,31 @@
         <v>121</v>
       </c>
       <c r="F30" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G30" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H30" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I30">
         <v>20109</v>
       </c>
       <c r="J30" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="K30">
         <v>9198898928</v>
       </c>
       <c r="L30" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="M30" s="221" t="s">
         <v>180</v>
       </c>
       <c r="N30" s="227" t="s">
-        <v>1426</v>
+        <v>1439</v>
       </c>
       <c r="O30"/>
       <c r="P30"/>
@@ -33312,13 +33468,13 @@
     </row>
     <row r="31" spans="1:52" s="7" customFormat="1">
       <c r="A31" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B31">
         <v>6280780007557770</v>
       </c>
       <c r="C31" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D31" t="s">
         <v>312</v>
@@ -33327,19 +33483,19 @@
         <v>121</v>
       </c>
       <c r="F31" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G31" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H31" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I31">
         <v>20109</v>
       </c>
       <c r="J31" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="K31">
         <v>9198898928</v>
@@ -33355,7 +33511,7 @@
         <v>123123123</v>
       </c>
       <c r="P31" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="Q31" t="s">
         <v>150</v>
@@ -33436,41 +33592,41 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>327</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="J1" s="12"/>
       <c r="K1" s="12" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -33478,33 +33634,33 @@
         <v>793</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
@@ -33514,33 +33670,33 @@
         <v>795</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
@@ -33550,33 +33706,33 @@
         <v>797</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
@@ -33586,33 +33742,33 @@
         <v>799</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
@@ -33622,33 +33778,33 @@
         <v>801</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
@@ -33658,33 +33814,33 @@
         <v>803</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
@@ -33694,33 +33850,33 @@
         <v>805</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C8" s="46" t="s">
+        <v>987</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>981</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>982</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>983</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>984</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>985</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>986</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>980</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>981</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>982</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>983</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>984</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>985</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
@@ -33730,33 +33886,33 @@
         <v>807</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C9" s="46" t="s">
+        <v>987</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>981</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>982</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>983</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>984</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>985</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>986</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>980</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>981</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>982</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>983</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>984</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>985</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
@@ -33766,35 +33922,35 @@
         <v>777</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C10" s="62" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -33802,32 +33958,32 @@
         <v>779</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="N11" s="12"/>
     </row>
@@ -33836,32 +33992,32 @@
         <v>781</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="N12" s="12"/>
     </row>
@@ -33870,32 +34026,32 @@
         <v>783</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="N13" s="12"/>
     </row>
@@ -33904,33 +34060,33 @@
         <v>785</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="46" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
@@ -33940,33 +34096,33 @@
         <v>787</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="46" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
@@ -33976,33 +34132,33 @@
         <v>789</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="46" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
@@ -34012,33 +34168,33 @@
         <v>791</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
       <c r="L17" s="46" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
@@ -34113,7 +34269,7 @@
         <v>43</v>
       </c>
       <c r="N1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="O1" t="s">
         <v>538</v>
@@ -34125,22 +34281,22 @@
         <v>540</v>
       </c>
       <c r="R1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="S1" t="s">
         <v>541</v>
       </c>
       <c r="T1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="U1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>542</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="X1" t="s">
         <v>7</v>
@@ -34179,7 +34335,7 @@
         <v>381</v>
       </c>
       <c r="AJ1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="AK1" s="8" t="s">
         <v>333</v>
@@ -34188,13 +34344,13 @@
         <v>1</v>
       </c>
       <c r="AM1" s="8" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="AN1" s="8" t="s">
         <v>335</v>
       </c>
       <c r="AO1" s="8" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="AP1" t="s">
         <v>75</v>
@@ -34218,22 +34374,22 @@
         <v>550</v>
       </c>
       <c r="AW1" s="5" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="AX1" s="5" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="AY1" s="5" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="AZ1" s="5" t="s">
         <v>353</v>
       </c>
       <c r="BA1" s="5" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="BB1" s="5" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="BC1" s="12" t="s">
         <v>40</v>
@@ -34269,19 +34425,19 @@
         <v>62</v>
       </c>
       <c r="BN1" s="12" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="BO1" t="s">
         <v>27</v>
       </c>
       <c r="BP1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="BQ1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="BR1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="BS1" t="s">
         <v>545</v>
@@ -34293,70 +34449,70 @@
         <v>47</v>
       </c>
       <c r="BW1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="BX1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="BY1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="BZ1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="CA1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="CB1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="CC1" t="s">
         <v>64</v>
       </c>
       <c r="CD1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="CE1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="CF1" t="s">
         <v>102</v>
       </c>
       <c r="CG1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="CH1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="CI1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="CJ1" t="s">
         <v>53</v>
       </c>
       <c r="CK1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="CL1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="CM1" t="s">
         <v>61</v>
       </c>
       <c r="CN1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="CO1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="CP1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="CQ1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="CR1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="CS1" t="s">
         <v>551</v>
@@ -34365,13 +34521,13 @@
         <v>82</v>
       </c>
       <c r="CU1" s="12" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="CV1" s="12" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="CW1" s="12" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="CX1" s="12" t="s">
         <v>22</v>
@@ -34398,16 +34554,16 @@
         <v>73</v>
       </c>
       <c r="DF1" s="12" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="DG1" s="12" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="DH1" s="12" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="DI1" s="12" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="DJ1" s="12" t="s">
         <v>337</v>
@@ -34443,10 +34599,10 @@
         <v>101</v>
       </c>
       <c r="DU1" s="12" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="DV1" s="12" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="DW1" s="12" t="s">
         <v>66</v>
@@ -34458,30 +34614,30 @@
         <v>341</v>
       </c>
       <c r="DZ1" s="12" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="EA1" s="12" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="EB1" s="12" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="EC1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="ED1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="EE1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="EF1" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="2" spans="1:136">
       <c r="A2" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B2" t="s">
         <v>152</v>
@@ -34517,10 +34673,10 @@
         <v>20</v>
       </c>
       <c r="Q2" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="S2" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="X2" t="s">
         <v>124</v>
@@ -34541,7 +34697,7 @@
         <v>121</v>
       </c>
       <c r="AE2" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="AF2" t="s">
         <v>127</v>
@@ -34579,7 +34735,7 @@
     </row>
     <row r="3" spans="1:136">
       <c r="A3" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B3" t="s">
         <v>120</v>
@@ -34633,7 +34789,7 @@
         <v>121</v>
       </c>
       <c r="AE3" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="AH3" t="b">
         <v>0</v>
@@ -34647,7 +34803,7 @@
     </row>
     <row r="4" spans="1:136">
       <c r="A4" s="12" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>152</v>
@@ -34677,7 +34833,7 @@
         <v>1030</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12" t="s">
@@ -34691,7 +34847,7 @@
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="12" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="T4" s="12"/>
       <c r="U4" s="12"/>
@@ -34717,7 +34873,7 @@
       </c>
       <c r="AD4" s="12"/>
       <c r="AE4" s="12" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="AF4" s="12" t="s">
         <v>127</v>
@@ -34801,7 +34957,7 @@
         <v>155</v>
       </c>
       <c r="CC4" s="12" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="CD4" s="12"/>
       <c r="CE4" s="191" t="s">
@@ -34823,7 +34979,7 @@
     </row>
     <row r="5" spans="1:136">
       <c r="A5" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B5" t="s">
         <v>152</v>
@@ -34850,7 +35006,7 @@
         <v>1030</v>
       </c>
       <c r="M5" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="O5" t="s">
         <v>398</v>
@@ -34862,10 +35018,10 @@
         <v>156</v>
       </c>
       <c r="S5" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="V5" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="X5" t="s">
         <v>124</v>
@@ -34886,7 +35042,7 @@
         <v>121</v>
       </c>
       <c r="AE5" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="AF5" t="s">
         <v>127</v>
@@ -34930,7 +35086,7 @@
     </row>
     <row r="6" spans="1:136">
       <c r="A6" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B6" t="s">
         <v>152</v>
@@ -34966,13 +35122,13 @@
         <v>20</v>
       </c>
       <c r="Q6" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="S6" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="V6" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="W6">
         <v>2</v>
@@ -34996,7 +35152,7 @@
         <v>121</v>
       </c>
       <c r="AE6" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="AF6" t="s">
         <v>127</v>
@@ -35050,7 +35206,7 @@
         <v>155</v>
       </c>
       <c r="CC6" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="CE6" s="23" t="s">
         <v>207</v>
@@ -35070,7 +35226,7 @@
     </row>
     <row r="7" spans="1:136" s="18" customFormat="1">
       <c r="A7" s="18" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>152</v>
@@ -35097,13 +35253,13 @@
         <v>1030</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="S7" s="18" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="V7" s="18" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="X7" s="18" t="s">
         <v>124</v>
@@ -35127,7 +35283,7 @@
         <v>123</v>
       </c>
       <c r="AE7" s="18" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="AF7" s="18" t="s">
         <v>127</v>
@@ -35169,7 +35325,7 @@
         <v>76102</v>
       </c>
       <c r="BJ7" s="19" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="BK7" s="18" t="s">
         <v>166</v>
@@ -35220,7 +35376,7 @@
         <v>20</v>
       </c>
       <c r="Q8" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="X8" t="s">
         <v>124</v>
@@ -35250,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="BP8" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="BQ8">
         <v>10</v>
@@ -35261,7 +35417,7 @@
     </row>
     <row r="9" spans="1:136">
       <c r="A9" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>152</v>
@@ -35273,13 +35429,13 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="G9" t="s">
         <v>108</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="I9" s="5">
         <v>1231233332</v>
@@ -35294,10 +35450,10 @@
         <v>413</v>
       </c>
       <c r="M9" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="O9" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="P9">
         <v>5</v>
@@ -35307,7 +35463,7 @@
       </c>
       <c r="R9" s="5"/>
       <c r="S9" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="X9" s="12" t="s">
         <v>185</v>
@@ -35361,7 +35517,7 @@
     </row>
     <row r="10" spans="1:136">
       <c r="A10" s="8" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>120</v>
@@ -35440,13 +35596,13 @@
         <v>214</v>
       </c>
       <c r="AN10" s="10" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="AO10" s="10"/>
     </row>
     <row r="11" spans="1:136">
       <c r="A11" s="8" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>120</v>
@@ -35480,7 +35636,7 @@
         <v>1030</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
@@ -35525,13 +35681,13 @@
         <v>214</v>
       </c>
       <c r="AN11" s="10" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="AO11" s="10"/>
     </row>
     <row r="12" spans="1:136">
       <c r="A12" s="8" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>120</v>
@@ -35565,7 +35721,7 @@
         <v>1030</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
@@ -35610,13 +35766,13 @@
         <v>214</v>
       </c>
       <c r="AN12" s="10" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="AO12" s="10"/>
     </row>
     <row r="13" spans="1:136">
       <c r="A13" s="8" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>120</v>
@@ -35695,13 +35851,13 @@
         <v>214</v>
       </c>
       <c r="AN13" s="10" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="AO13" s="10"/>
     </row>
     <row r="14" spans="1:136">
       <c r="A14" s="8" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>120</v>
@@ -35735,7 +35891,7 @@
         <v>1030</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
@@ -35780,7 +35936,7 @@
         <v>214</v>
       </c>
       <c r="AN14" s="10" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="AO14" s="10"/>
     </row>
@@ -35792,7 +35948,7 @@
         <v>152</v>
       </c>
       <c r="C15" s="142" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D15" s="141"/>
       <c r="E15" s="141">
@@ -35816,7 +35972,7 @@
         <v>1030</v>
       </c>
       <c r="M15" s="141" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="N15" s="141"/>
       <c r="O15" s="141"/>
@@ -35833,7 +35989,7 @@
         <v>123</v>
       </c>
       <c r="Z15" s="141" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="AA15" s="141">
         <v>12123</v>
@@ -35899,7 +36055,7 @@
         <v>135</v>
       </c>
       <c r="BJ15" s="175" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="BK15" s="34" t="s">
         <v>136</v>
@@ -35923,7 +36079,7 @@
         <v>129</v>
       </c>
       <c r="CC15" s="145" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="CD15" s="145" t="s">
         <v>267</v>
@@ -35949,7 +36105,7 @@
         <v>152</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8">
@@ -35975,10 +36131,10 @@
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="5" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="X16" s="8" t="s">
         <v>179</v>
@@ -35987,7 +36143,7 @@
         <v>123</v>
       </c>
       <c r="Z16" s="8" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="AA16" s="8">
         <v>12123</v>
@@ -36018,7 +36174,7 @@
       <c r="AN16" s="10"/>
       <c r="AO16" s="10"/>
       <c r="AP16" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="AQ16">
         <v>123123123</v>
@@ -36090,7 +36246,7 @@
         <v>129</v>
       </c>
       <c r="CC16" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="CD16" t="s">
         <v>267</v>
@@ -36123,7 +36279,7 @@
         <v>257</v>
       </c>
       <c r="CO16" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="17" spans="1:135">
@@ -36134,7 +36290,7 @@
         <v>152</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5">
@@ -36143,7 +36299,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="14" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="I17" s="5">
         <v>1231233332</v>
@@ -36160,12 +36316,12 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="W17" s="5"/>
       <c r="X17" s="5" t="s">
@@ -36205,7 +36361,7 @@
       <c r="AN17" s="5"/>
       <c r="AO17" s="5"/>
       <c r="AP17" s="5" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="AQ17" s="5">
         <v>123123123</v>
@@ -36231,7 +36387,7 @@
     </row>
     <row r="18" spans="1:135">
       <c r="A18" s="12" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>152</v>
@@ -36246,7 +36402,7 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="9" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="I18" s="12">
         <v>1231233332</v>
@@ -36259,7 +36415,7 @@
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="12" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="P18" s="12">
         <v>3</v>
@@ -36274,13 +36430,13 @@
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
       <c r="X18" s="12" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="Y18" s="12" t="s">
         <v>123</v>
       </c>
       <c r="Z18" s="12" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="AA18" s="12">
         <v>12123</v>
@@ -36296,7 +36452,7 @@
         <v>581</v>
       </c>
       <c r="AF18" s="12" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="AG18" s="12"/>
       <c r="AH18" s="12"/>
@@ -36333,10 +36489,10 @@
         <v>212</v>
       </c>
       <c r="AW18" s="12" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="AX18" s="12" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="AY18" s="12" t="s">
         <v>156</v>
@@ -36345,10 +36501,10 @@
         <v>1212</v>
       </c>
       <c r="BA18" s="12" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="BB18" s="12" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="BC18" s="12" t="s">
         <v>181</v>
@@ -36407,7 +36563,7 @@
         <v>129</v>
       </c>
       <c r="CC18" s="12" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="CD18" s="12"/>
       <c r="CE18" s="12"/>
@@ -36429,7 +36585,7 @@
         <v>257</v>
       </c>
       <c r="CO18" s="12" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="19" spans="1:135">
@@ -36464,7 +36620,7 @@
         <v>1030</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
@@ -36478,13 +36634,13 @@
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="Y19" s="5" t="s">
         <v>123</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="AA19" s="5">
         <v>12123</v>
@@ -36535,7 +36691,7 @@
         <v>152</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="24">
@@ -36561,28 +36717,28 @@
         <v>1250</v>
       </c>
       <c r="M20" s="24" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="N20" s="24"/>
       <c r="O20" s="24" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="P20" s="24">
         <v>5</v>
       </c>
       <c r="Q20" s="24" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="R20" s="24"/>
       <c r="S20" s="24" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="T20" s="24"/>
       <c r="U20" s="24"/>
       <c r="V20" s="24"/>
       <c r="W20" s="24"/>
       <c r="X20" s="24" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="Y20" s="24" t="s">
         <v>123</v>
@@ -36687,17 +36843,17 @@
         <v>1260</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="5" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="P21" s="5">
         <v>50</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
@@ -36706,7 +36862,7 @@
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="Y21" s="5" t="s">
         <v>123</v>
@@ -36764,7 +36920,7 @@
         <v>152</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5">
@@ -36788,17 +36944,17 @@
         <v>1030</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="5" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="P22" s="5">
         <v>3</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -36807,7 +36963,7 @@
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
       <c r="X22" s="5" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="Y22" s="5" t="s">
         <v>123</v>
@@ -36912,7 +37068,7 @@
         <v>219</v>
       </c>
       <c r="CC22" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="CD22" t="s">
         <v>267</v>
@@ -36939,12 +37095,12 @@
         <v>277</v>
       </c>
       <c r="CP22" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="23" spans="1:135" s="18" customFormat="1">
       <c r="A23" s="16" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>120</v>
@@ -36963,7 +37119,7 @@
         <v>177</v>
       </c>
       <c r="H23" s="63" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="I23" s="16">
         <v>1231233332</v>
@@ -37058,7 +37214,7 @@
         <v>8104</v>
       </c>
       <c r="BJ23" s="12" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="BK23" s="81" t="s">
         <v>194</v>
@@ -37072,7 +37228,7 @@
     </row>
     <row r="24" spans="1:135" s="18" customFormat="1" ht="15.5">
       <c r="A24" s="196" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B24" s="196" t="s">
         <v>120</v>
@@ -37087,13 +37243,13 @@
         <v>10</v>
       </c>
       <c r="F24" s="196" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="G24" s="196" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="H24" s="192" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="I24" s="196">
         <v>1231233332</v>
@@ -37102,49 +37258,49 @@
         <v>249</v>
       </c>
       <c r="K24" s="217" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="L24" s="196" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="M24" s="196" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="N24" s="196" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="O24" s="196" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="P24" s="196" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="Q24" s="196" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="R24" s="196" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="S24" s="196" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="T24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="U24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="V24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="W24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="X24" s="196" t="s">
         <v>185</v>
       </c>
       <c r="Y24" s="196" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="Z24" s="196" t="s">
         <v>124</v>
@@ -37165,28 +37321,28 @@
         <v>581</v>
       </c>
       <c r="AF24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="AG24" s="196" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="AH24" s="196" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="AI24" s="196" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="AJ24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="AK24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="AL24" s="216" t="s">
         <v>183</v>
       </c>
       <c r="AM24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="AN24" s="3">
         <v>1234567854</v>
@@ -37201,7 +37357,7 @@
         <v>123123123</v>
       </c>
       <c r="AR24" s="217" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="AS24" s="196" t="s">
         <v>150</v>
@@ -37216,22 +37372,22 @@
         <v>212</v>
       </c>
       <c r="AW24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="AX24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="AY24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="AZ24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="BA24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="BB24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="BC24" s="197" t="s">
         <v>196</v>
@@ -37255,7 +37411,7 @@
         <v>8104</v>
       </c>
       <c r="BJ24" s="199" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="BK24" s="196" t="s">
         <v>194</v>
@@ -37267,219 +37423,219 @@
         <v>260</v>
       </c>
       <c r="BN24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="BO24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="BP24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="BQ24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="BR24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="BS24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="BT24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="BU24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="BV24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="BW24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="BX24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="BY24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="BZ24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CA24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CB24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CC24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CD24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CE24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CF24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CG24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CH24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CI24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CJ24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CK24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CL24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CM24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CN24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CO24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CP24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CQ24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CR24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CS24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CT24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CU24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CV24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CW24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CX24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CY24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CZ24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="DA24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="DB24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="DC24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="DD24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="DE24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="DF24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="DG24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="DH24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="DI24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="DJ24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="DK24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="DL24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="DM24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="DN24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="DO24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="DP24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="DQ24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="DR24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="DS24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="DT24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="DU24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="DV24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="DW24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="DX24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="DY24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="DZ24" s="12" t="s">
         <v>109</v>
       </c>
       <c r="EA24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="EB24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="EC24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="ED24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="EE24" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="25" spans="1:135" ht="16">
       <c r="A25" s="12" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>152</v>
@@ -37488,17 +37644,17 @@
         <v>119</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>108</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="I25" s="12">
         <v>1222342342</v>
@@ -37513,17 +37669,17 @@
         <v>444</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="N25" s="12"/>
       <c r="O25" s="12" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="P25" s="12">
         <v>5</v>
       </c>
       <c r="Q25" s="12" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="R25" s="12"/>
       <c r="S25" s="12" t="s">
@@ -37537,10 +37693,10 @@
         <v>108</v>
       </c>
       <c r="Y25" s="12" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="Z25" s="12" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="AA25" s="12">
         <v>87686</v>
@@ -37553,7 +37709,7 @@
       </c>
       <c r="AD25" s="12"/>
       <c r="AE25" s="12" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="AF25" s="12" t="s">
         <v>582</v>
@@ -37619,7 +37775,7 @@
       <c r="CA25" s="8"/>
       <c r="CB25" s="8"/>
       <c r="CC25" s="65" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="CD25" s="65"/>
       <c r="CE25" s="8"/>
@@ -37660,7 +37816,7 @@
       <c r="DH25" s="8"/>
       <c r="DI25" s="8"/>
       <c r="DJ25" s="12" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="DK25" s="12" t="s">
         <v>208</v>
@@ -37702,23 +37858,23 @@
         <v>208</v>
       </c>
       <c r="DZ25" s="12" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="EA25" s="8" t="s">
         <v>138</v>
       </c>
       <c r="EB25" s="12" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="EC25" s="8" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="ED25" s="8"/>
       <c r="EE25" s="8"/>
     </row>
     <row r="26" spans="1:135" s="7" customFormat="1">
       <c r="A26" s="36" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B26" s="36" t="s">
         <v>152</v>
@@ -37727,17 +37883,17 @@
         <v>119</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="E26" s="36"/>
       <c r="F26" s="36" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="G26" s="36" t="s">
         <v>108</v>
       </c>
       <c r="H26" s="219" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="I26" s="35">
         <v>1222342342</v>
@@ -37756,13 +37912,13 @@
       </c>
       <c r="N26" s="36"/>
       <c r="O26" s="35" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="P26" s="35">
         <v>5</v>
       </c>
       <c r="Q26" s="35" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="R26" s="36"/>
       <c r="S26" s="35" t="s">
@@ -37776,10 +37932,10 @@
         <v>108</v>
       </c>
       <c r="Y26" s="35" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="Z26" s="35" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="AA26" s="35">
         <v>87686</v>
@@ -37792,7 +37948,7 @@
       </c>
       <c r="AD26" s="36"/>
       <c r="AE26" s="35" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="AF26" s="35" t="s">
         <v>582</v>
@@ -37836,16 +37992,16 @@
         <v>1117</v>
       </c>
       <c r="BO26" s="36" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="BP26" s="35" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="BQ26" s="36">
         <v>5</v>
       </c>
       <c r="BR26" s="36" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="BS26" s="36"/>
       <c r="BT26" s="36"/>
@@ -37858,7 +38014,7 @@
       <c r="CA26" s="36"/>
       <c r="CB26" s="36"/>
       <c r="CC26" s="220" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="CD26" s="220"/>
       <c r="CE26" s="36"/>
@@ -37899,7 +38055,7 @@
       <c r="DH26" s="36"/>
       <c r="DI26" s="36"/>
       <c r="DJ26" s="35" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="DK26" s="35" t="s">
         <v>208</v>
@@ -37941,21 +38097,21 @@
         <v>208</v>
       </c>
       <c r="DZ26" s="35" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="EA26" s="36" t="s">
         <v>138</v>
       </c>
       <c r="EB26" s="36"/>
       <c r="EC26" s="36" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="ED26" s="36"/>
       <c r="EE26" s="36"/>
     </row>
     <row r="27" spans="1:135" ht="16.5">
       <c r="A27" s="8" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>152</v>
@@ -37964,17 +38120,17 @@
         <v>184</v>
       </c>
       <c r="D27" s="105" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="105" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="I27" s="12">
         <v>1232342345</v>
@@ -38010,7 +38166,7 @@
         <v>123</v>
       </c>
       <c r="Z27" s="12" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="AA27" s="12">
         <v>30606</v>
@@ -38023,10 +38179,10 @@
       </c>
       <c r="AD27" s="8"/>
       <c r="AE27" s="12" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="AF27" s="12" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="AG27" s="5">
         <v>12345</v>
@@ -38081,7 +38237,7 @@
       <c r="CA27" s="8"/>
       <c r="CB27" s="8"/>
       <c r="CC27" s="8" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="CD27" s="8"/>
       <c r="CE27" s="8"/>
@@ -38105,7 +38261,7 @@
         <v>257</v>
       </c>
       <c r="CO27" s="8" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="CP27" s="8"/>
       <c r="CQ27" s="8"/>
@@ -38128,7 +38284,7 @@
       <c r="DH27" s="8"/>
       <c r="DI27" s="8"/>
       <c r="DJ27" s="12" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="DK27" s="12" t="s">
         <v>208</v>
@@ -38140,10 +38296,10 @@
         <v>193</v>
       </c>
       <c r="DN27" s="182" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="DO27" s="10" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="DP27" s="12" t="s">
         <v>194</v>
@@ -38183,14 +38339,14 @@
       </c>
       <c r="EB27" s="8"/>
       <c r="EC27" s="105" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="ED27" s="8"/>
       <c r="EE27" s="8"/>
     </row>
     <row r="28" spans="1:135">
       <c r="A28" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B28" t="s">
         <v>152</v>
@@ -38202,7 +38358,7 @@
         <v>50</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="I28" s="12">
         <v>1231232345</v>
@@ -38221,13 +38377,13 @@
       </c>
       <c r="N28" s="12"/>
       <c r="O28" s="12" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="P28" s="12">
         <v>20</v>
       </c>
       <c r="Q28" s="12" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="S28" s="12" t="s">
         <v>473</v>
@@ -38251,7 +38407,7 @@
         <v>121</v>
       </c>
       <c r="AE28" s="12" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="AF28" s="12" t="s">
         <v>127</v>
@@ -38271,7 +38427,7 @@
         <v>129</v>
       </c>
       <c r="CC28" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="CF28" s="65" t="s">
         <v>212</v>
@@ -38283,7 +38439,7 @@
         <v>1</v>
       </c>
       <c r="DJ28" s="12" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="DK28" s="12" t="s">
         <v>208</v>
@@ -38333,7 +38489,7 @@
     </row>
     <row r="29" spans="1:135">
       <c r="A29" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B29" t="s">
         <v>152</v>
@@ -38345,7 +38501,7 @@
         <v>50</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="I29" s="12">
         <v>1231232345</v>
@@ -38364,7 +38520,7 @@
       </c>
       <c r="N29" s="12"/>
       <c r="O29" s="12" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="P29">
         <v>5</v>
@@ -38394,7 +38550,7 @@
         <v>121</v>
       </c>
       <c r="AE29" s="12" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="AF29" s="12" t="s">
         <v>127</v>
@@ -38409,13 +38565,13 @@
         <v>197</v>
       </c>
       <c r="BP29" s="12" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="BQ29" s="12">
         <v>10</v>
       </c>
       <c r="BR29" s="12" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="BS29" s="12"/>
       <c r="BT29" s="12"/>
@@ -38426,7 +38582,7 @@
         <v>129</v>
       </c>
       <c r="CC29" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="CF29" s="65" t="s">
         <v>212</v>
@@ -38438,7 +38594,7 @@
         <v>1</v>
       </c>
       <c r="DJ29" s="12" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="DK29" t="s">
         <v>208</v>
@@ -38488,7 +38644,7 @@
     </row>
     <row r="30" spans="1:135" s="18" customFormat="1">
       <c r="A30" s="16" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>152</v>
@@ -38501,7 +38657,7 @@
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
       <c r="H30" s="63" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="I30" s="12">
         <v>1232342345</v>
@@ -38550,7 +38706,7 @@
         <v>123</v>
       </c>
       <c r="AE30" s="16" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="AF30" s="16" t="s">
         <v>590</v>
@@ -38656,7 +38812,7 @@
       <c r="CA30" s="16"/>
       <c r="CB30" s="16"/>
       <c r="CC30" s="13" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="CD30" s="16" t="s">
         <v>267</v>
@@ -38682,12 +38838,12 @@
       <c r="CQ30" s="16"/>
       <c r="CR30" s="16"/>
       <c r="CS30" s="16" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="31" spans="1:135">
       <c r="A31" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B31" t="s">
         <v>152</v>
@@ -38699,7 +38855,7 @@
         <v>50</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="I31" s="12">
         <v>1231232345</v>
@@ -38714,10 +38870,10 @@
         <v>444</v>
       </c>
       <c r="M31" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="O31" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="P31">
         <v>20</v>
@@ -38747,7 +38903,7 @@
         <v>121</v>
       </c>
       <c r="AE31" s="12" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="AF31" s="12" t="s">
         <v>127</v>
@@ -38765,7 +38921,7 @@
         <v>129</v>
       </c>
       <c r="CC31" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="CF31" s="65" t="s">
         <v>212</v>
@@ -38777,7 +38933,7 @@
         <v>1</v>
       </c>
       <c r="DJ31" s="12" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="DK31" s="12" t="s">
         <v>208</v>
@@ -38827,7 +38983,7 @@
     </row>
     <row r="32" spans="1:135">
       <c r="A32" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B32" t="s">
         <v>152</v>
@@ -38839,7 +38995,7 @@
         <v>50</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="I32" s="12">
         <v>1231232345</v>
@@ -38854,10 +39010,10 @@
         <v>444</v>
       </c>
       <c r="M32" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="O32" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="P32">
         <v>20</v>
@@ -38887,7 +39043,7 @@
         <v>121</v>
       </c>
       <c r="AE32" s="12" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="AF32" s="12" t="s">
         <v>127</v>
@@ -38908,7 +39064,7 @@
         <v>129</v>
       </c>
       <c r="CC32" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="CF32" s="65" t="s">
         <v>212</v>
@@ -38920,7 +39076,7 @@
         <v>1</v>
       </c>
       <c r="DJ32" s="12" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="DK32" s="12" t="s">
         <v>208</v>
@@ -38970,7 +39126,7 @@
     </row>
     <row r="33" spans="1:136">
       <c r="A33" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B33" t="s">
         <v>152</v>
@@ -38982,7 +39138,7 @@
         <v>50</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="I33" s="12">
         <v>1231232345</v>
@@ -39001,13 +39157,13 @@
       </c>
       <c r="N33" s="12"/>
       <c r="O33" s="12" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="P33" s="12">
         <v>20</v>
       </c>
       <c r="Q33" s="12" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="S33" s="12" t="s">
         <v>473</v>
@@ -39031,7 +39187,7 @@
         <v>121</v>
       </c>
       <c r="AE33" s="12" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="AF33" s="12" t="s">
         <v>127</v>
@@ -39053,20 +39209,20 @@
     </row>
     <row r="34" spans="1:136" ht="16">
       <c r="A34" s="12" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>152</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="21" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="I34" s="12">
         <v>1232342345</v>
@@ -39083,13 +39239,13 @@
       </c>
       <c r="N34" s="12"/>
       <c r="O34" s="12" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="P34" s="12">
         <v>3</v>
       </c>
       <c r="Q34" s="12" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="R34" s="12"/>
       <c r="S34" s="12"/>
@@ -39104,7 +39260,7 @@
         <v>123</v>
       </c>
       <c r="Z34" s="12" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="AA34" s="12">
         <v>30606</v>
@@ -39117,10 +39273,10 @@
       </c>
       <c r="AD34" s="12"/>
       <c r="AE34" s="12" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="AF34" s="12" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="AG34" s="12"/>
       <c r="AH34" s="28"/>
@@ -39130,7 +39286,7 @@
       <c r="AL34" s="12"/>
       <c r="AM34" s="12"/>
       <c r="AP34" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="AQ34">
         <v>123123123</v>
@@ -39142,22 +39298,22 @@
         <v>150</v>
       </c>
       <c r="AW34" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="AX34" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="BS34">
         <v>2</v>
       </c>
       <c r="BU34" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="CQ34" s="12" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="CR34" s="12" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="CS34" s="12" t="s">
         <v>177</v>
@@ -39168,7 +39324,7 @@
     </row>
     <row r="35" spans="1:136" s="18" customFormat="1">
       <c r="A35" s="18" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>152</v>
@@ -39177,16 +39333,16 @@
         <v>119</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="I35" s="18">
         <v>8745864585</v>
@@ -39214,7 +39370,7 @@
         <v>579</v>
       </c>
       <c r="X35" s="12" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="Y35" s="12" t="s">
         <v>123</v>
@@ -39235,7 +39391,7 @@
         <v>123</v>
       </c>
       <c r="AE35" s="18" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="AF35" s="18" t="s">
         <v>582</v>
@@ -39244,7 +39400,7 @@
         <v>1</v>
       </c>
       <c r="AK35" s="18" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="AL35" s="66" t="s">
         <v>104</v>
@@ -39289,7 +39445,7 @@
         <v>135</v>
       </c>
       <c r="BJ35" s="175" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="BK35" s="34" t="s">
         <v>136</v>
@@ -39304,7 +39460,7 @@
         <v>173</v>
       </c>
       <c r="CC35" s="18" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="CD35" s="18" t="s">
         <v>267</v>
@@ -39318,7 +39474,7 @@
     </row>
     <row r="36" spans="1:136">
       <c r="A36" s="12" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>152</v>
@@ -39333,7 +39489,7 @@
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="9" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="I36" s="12">
         <v>1231233332</v>
@@ -39437,7 +39593,7 @@
         <v>135</v>
       </c>
       <c r="BJ36" s="175" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="BK36" s="34" t="s">
         <v>136</v>
@@ -39484,7 +39640,7 @@
     </row>
     <row r="37" spans="1:136">
       <c r="A37" s="12" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>152</v>
@@ -39499,7 +39655,7 @@
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="9" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="I37" s="12">
         <v>1231233332</v>
@@ -39516,7 +39672,7 @@
       </c>
       <c r="N37" s="12"/>
       <c r="O37" s="12" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="P37" s="12">
         <v>2</v>
@@ -39631,7 +39787,7 @@
       <c r="BN37" s="12"/>
       <c r="BO37" s="12"/>
       <c r="BP37" s="12" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="BQ37" s="12">
         <v>2</v>
@@ -39658,7 +39814,7 @@
       </c>
       <c r="CB37" s="12"/>
       <c r="CC37" s="12" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="CD37" s="12" t="s">
         <v>208</v>
@@ -39688,12 +39844,12 @@
         <v>257</v>
       </c>
       <c r="CO37" s="12" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="38" spans="1:136">
       <c r="A38" s="12" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>152</v>
@@ -39708,7 +39864,7 @@
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="9" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="I38" s="12">
         <v>1231233332</v>
@@ -39725,7 +39881,7 @@
       <c r="Q38" s="12"/>
       <c r="R38" s="12"/>
       <c r="S38" s="12" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="T38" s="12"/>
       <c r="U38" s="12"/>
@@ -39804,7 +39960,7 @@
         <v>135</v>
       </c>
       <c r="BJ38" s="175" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="BK38" s="34" t="s">
         <v>136</v>
@@ -39815,7 +39971,7 @@
     </row>
     <row r="39" spans="1:136">
       <c r="A39" s="8" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>152</v>
@@ -39849,10 +40005,10 @@
         <v>10</v>
       </c>
       <c r="Q39" s="107" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="X39" s="8" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="Y39" s="8" t="s">
         <v>124</v>
@@ -39903,7 +40059,7 @@
         <v>135</v>
       </c>
       <c r="BJ39" s="10" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="BK39" s="34" t="s">
         <v>136</v>
@@ -39919,7 +40075,7 @@
     </row>
     <row r="40" spans="1:136">
       <c r="A40" s="8" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>152</v>
@@ -39947,10 +40103,10 @@
         <v>232</v>
       </c>
       <c r="S40" s="8" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="X40" s="8" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="Y40" s="8" t="s">
         <v>124</v>
@@ -40001,7 +40157,7 @@
         <v>135</v>
       </c>
       <c r="BJ40" s="10" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="BK40" s="34" t="s">
         <v>136</v>
@@ -40021,14 +40177,14 @@
         <v>152</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="21" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="I41" s="12" t="s">
         <v>111</v>
@@ -40045,7 +40201,7 @@
       </c>
       <c r="N41" s="12"/>
       <c r="O41" s="12" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="P41" s="8">
         <v>3</v>
@@ -40065,10 +40221,10 @@
         <v>108</v>
       </c>
       <c r="Y41" s="12" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="Z41" s="12" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="AA41" s="12">
         <v>87686</v>
@@ -40081,10 +40237,10 @@
       </c>
       <c r="AD41" s="8"/>
       <c r="AE41" s="12" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="AF41" s="12" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="AG41" s="8">
         <v>12345</v>
@@ -40094,7 +40250,7 @@
       <c r="AJ41" s="8"/>
       <c r="AK41" s="8"/>
       <c r="AL41" s="193" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="AM41" s="8"/>
       <c r="AN41" s="8"/>
@@ -40169,13 +40325,13 @@
       <c r="CS41" s="8"/>
       <c r="CT41" s="8"/>
       <c r="CU41" s="12" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="CV41" s="7" t="s">
         <v>521</v>
       </c>
       <c r="CW41" s="35" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="CX41" s="218" t="s">
         <v>115</v>
@@ -40190,16 +40346,16 @@
         <v>147</v>
       </c>
       <c r="DB41" s="35" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="DC41" s="35" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="DD41" s="35" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="DE41" s="35" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="DF41" s="12" t="s">
         <v>149</v>
@@ -40230,7 +40386,7 @@
       <c r="DX41" s="8"/>
       <c r="DY41" s="8"/>
       <c r="DZ41" s="8" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="EA41" s="8"/>
       <c r="EB41" s="8" t="s">
@@ -40248,7 +40404,7 @@
         <v>152</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="E42" s="5">
         <v>10</v>
@@ -40260,7 +40416,7 @@
         <v>108</v>
       </c>
       <c r="H42" s="32" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="I42" s="5">
         <v>1231233332</v>
@@ -40279,7 +40435,7 @@
       </c>
       <c r="N42" s="8"/>
       <c r="O42" s="8" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="P42" s="8">
         <v>5</v>
@@ -40381,7 +40537,7 @@
         <v>127</v>
       </c>
       <c r="AG43" s="51" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="AI43" s="54" t="s">
         <v>209</v>
@@ -40399,7 +40555,7 @@
         <v>214</v>
       </c>
       <c r="AN43" s="54" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="AO43" s="54"/>
       <c r="AT43" s="27" t="s">
@@ -40433,7 +40589,7 @@
         <v>135</v>
       </c>
       <c r="BJ43" s="10" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="BK43" s="34" t="s">
         <v>136</v>
@@ -40517,7 +40673,7 @@
         <v>127</v>
       </c>
       <c r="AG44" s="51" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="AI44" s="54" t="s">
         <v>209</v>
@@ -40535,7 +40691,7 @@
         <v>214</v>
       </c>
       <c r="AN44" s="54" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="AO44" s="54"/>
       <c r="AS44" s="27" t="s">
@@ -40572,7 +40728,7 @@
         <v>135</v>
       </c>
       <c r="BJ44" s="10" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="BK44" s="34" t="s">
         <v>136</v>
@@ -40604,7 +40760,7 @@
     </row>
     <row r="45" spans="1:136" s="18" customFormat="1" ht="19.5" customHeight="1">
       <c r="A45" s="177" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B45" s="177" t="s">
         <v>152</v>
@@ -40613,19 +40769,19 @@
         <v>119</v>
       </c>
       <c r="D45" s="177" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="E45" s="177" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="F45" s="177" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="G45" s="177" t="s">
         <v>108</v>
       </c>
       <c r="H45" s="178" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="I45" s="177">
         <v>1222342342</v>
@@ -40640,46 +40796,46 @@
         <v>444</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="N45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="O45" s="177" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="P45" s="177">
         <v>5</v>
       </c>
       <c r="Q45" s="177" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="R45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="S45" s="177" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="T45" s="177" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="U45" s="180" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="V45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="W45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="X45" s="177" t="s">
         <v>108</v>
       </c>
       <c r="Y45" s="177" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="Z45" s="177" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="AA45" s="177">
         <v>87686</v>
@@ -40691,7 +40847,7 @@
         <v>121</v>
       </c>
       <c r="AD45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="AE45" s="177" t="s">
         <v>581</v>
@@ -40707,34 +40863,34 @@
         <v>209</v>
       </c>
       <c r="AJ45" s="177" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="AK45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="AL45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="AM45" s="68" t="s">
         <v>214</v>
       </c>
       <c r="AN45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="AO45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="AP45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="AQ45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="AR45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="AS45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="AT45" s="179" t="s">
         <v>129</v>
@@ -40746,22 +40902,22 @@
         <v>212</v>
       </c>
       <c r="AW45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="AX45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="AY45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="AZ45" s="179">
         <v>3619</v>
       </c>
       <c r="BA45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="BB45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="BC45" s="12" t="s">
         <v>138</v>
@@ -40785,7 +40941,7 @@
         <v>135</v>
       </c>
       <c r="BJ45" s="10" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="BK45" s="34" t="s">
         <v>136</v>
@@ -40800,7 +40956,7 @@
         <v>3619</v>
       </c>
       <c r="BO45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="BP45" s="179" t="s">
         <v>398</v>
@@ -40812,37 +40968,37 @@
         <v>156</v>
       </c>
       <c r="BS45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="BT45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="BU45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="BV45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="BW45" s="179" t="s">
         <v>219</v>
       </c>
       <c r="BX45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="BY45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="BZ45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CA45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CB45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CC45" s="179" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="CD45" s="179"/>
       <c r="CE45" s="16" t="s">
@@ -40852,94 +41008,94 @@
         <v>212</v>
       </c>
       <c r="CG45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CH45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CI45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CJ45" s="179" t="s">
         <v>208</v>
       </c>
       <c r="CK45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CL45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CM45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CN45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CO45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CP45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CQ45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CR45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CS45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CT45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CU45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CV45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CW45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CX45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CY45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="CZ45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="DA45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="DB45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="DC45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="DD45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="DE45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="DF45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="DG45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="DH45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="DI45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="DJ45" s="177" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="DK45" s="177" t="s">
         <v>208</v>
@@ -40987,33 +41143,33 @@
         <v>208</v>
       </c>
       <c r="DZ45" s="177" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="EA45" s="177" t="s">
         <v>138</v>
       </c>
       <c r="EB45" s="177" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="EC45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="ED45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="EE45" s="179" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="46" spans="1:136" s="18" customFormat="1">
       <c r="A46" s="16" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B46" s="16" t="s">
         <v>152</v>
       </c>
       <c r="C46" s="155" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
@@ -41032,20 +41188,20 @@
         <v>128</v>
       </c>
       <c r="L46" s="20" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="M46" s="16" t="s">
         <v>172</v>
       </c>
       <c r="N46" s="16"/>
       <c r="O46" s="16" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="P46" s="16">
         <v>10</v>
       </c>
       <c r="Q46" s="16" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="R46" s="16"/>
       <c r="S46" s="67" t="s">
@@ -41056,7 +41212,7 @@
       <c r="V46" s="16"/>
       <c r="W46" s="16"/>
       <c r="X46" s="16" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="Y46" s="16" t="s">
         <v>124</v>
@@ -41077,7 +41233,7 @@
         <v>123</v>
       </c>
       <c r="AE46" s="16" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="AF46" s="16" t="s">
         <v>590</v>
@@ -41185,7 +41341,7 @@
       <c r="CA46" s="16"/>
       <c r="CB46" s="16"/>
       <c r="CC46" s="16" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="CD46" s="16"/>
       <c r="CE46" s="16" t="s">
@@ -41215,7 +41371,7 @@
         <v>114</v>
       </c>
       <c r="CW46" s="35" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="CX46" s="16" t="s">
         <v>115</v>
@@ -41230,16 +41386,16 @@
         <v>147</v>
       </c>
       <c r="DB46" s="35" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="DC46" s="35" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="DD46" s="35" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="DE46" s="35" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="DF46" s="16" t="s">
         <v>149</v>
@@ -41304,7 +41460,7 @@
         <v>154</v>
       </c>
       <c r="AG47" s="51" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="AH47" s="81" t="b">
         <v>1</v>
@@ -41325,7 +41481,7 @@
         <v>249</v>
       </c>
       <c r="AN47" s="91" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="AP47" s="81" t="s">
         <v>127</v>
@@ -41346,7 +41502,7 @@
         <v>212</v>
       </c>
       <c r="AW47" s="81" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="BC47" s="93" t="s">
         <v>196</v>
@@ -41403,12 +41559,12 @@
         <v>269</v>
       </c>
       <c r="CN47" s="81" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="48" spans="1:136" s="18" customFormat="1">
       <c r="A48" s="16" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B48" s="16" t="s">
         <v>152</v>
@@ -41439,13 +41595,13 @@
         <v>115</v>
       </c>
       <c r="L48" s="20" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="M48" s="16" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O48" s="16" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="P48" s="16">
         <v>5</v>
@@ -41454,7 +41610,7 @@
         <v>579</v>
       </c>
       <c r="S48" s="67" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="X48" s="16" t="s">
         <v>185</v>
@@ -41535,7 +41691,7 @@
         <v>135</v>
       </c>
       <c r="BJ48" s="10" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="BK48" s="34" t="s">
         <v>136</v>
@@ -41553,7 +41709,7 @@
         <v>168</v>
       </c>
       <c r="BV48" s="18" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="BW48" s="18" t="s">
         <v>244</v>
@@ -41562,7 +41718,7 @@
         <v>129</v>
       </c>
       <c r="CC48" s="18" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="CD48" s="18" t="s">
         <v>267</v>
@@ -41590,13 +41746,13 @@
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>108</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="I49" s="8">
         <v>1222342342</v>
@@ -41615,7 +41771,7 @@
       </c>
       <c r="N49" s="8"/>
       <c r="O49" s="8" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="P49" s="8">
         <v>5</v>
@@ -41635,10 +41791,10 @@
         <v>108</v>
       </c>
       <c r="Y49" s="8" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="Z49" s="8" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="AA49" s="8">
         <v>87686</v>
@@ -41651,7 +41807,7 @@
       </c>
       <c r="AD49" s="8"/>
       <c r="AE49" s="12" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="AF49" s="5" t="s">
         <v>582</v>
@@ -41707,7 +41863,7 @@
       <c r="CA49" s="8"/>
       <c r="CB49" s="8"/>
       <c r="CC49" s="8" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="CD49" s="8"/>
       <c r="CE49" s="8"/>
@@ -41794,7 +41950,7 @@
         <v>208</v>
       </c>
       <c r="DZ49" s="12" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="EA49" s="12" t="s">
         <v>138</v>
@@ -41803,14 +41959,14 @@
         <v>172</v>
       </c>
       <c r="EC49" s="8" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="ED49" s="8"/>
       <c r="EE49" s="8"/>
     </row>
     <row r="50" spans="1:135">
       <c r="A50" s="12" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>152</v>
@@ -41819,19 +41975,19 @@
         <v>119</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="E50" s="12">
         <v>5</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="G50" s="12" t="s">
         <v>108</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="I50" s="65">
         <v>1222342342</v>
@@ -41850,7 +42006,7 @@
       </c>
       <c r="N50" s="12"/>
       <c r="O50" s="13" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="P50" s="12">
         <v>5</v>
@@ -41872,10 +42028,10 @@
         <v>108</v>
       </c>
       <c r="Y50" s="46" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="Z50" s="177" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="AA50" s="177">
         <v>87686</v>
@@ -41939,7 +42095,7 @@
         <v>135</v>
       </c>
       <c r="BJ50" s="10" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="BK50" s="34" t="s">
         <v>136</v>
@@ -41968,7 +42124,7 @@
       <c r="CA50" s="12"/>
       <c r="CB50" s="12"/>
       <c r="CC50" s="12" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="CD50" s="12"/>
       <c r="CE50" s="12" t="s">
@@ -42238,7 +42394,7 @@
         <v>112</v>
       </c>
       <c r="M52" s="81" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="AE52" s="81" t="s">
         <v>154</v>
@@ -42441,7 +42597,7 @@
         <v>112</v>
       </c>
       <c r="M54" s="18" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="AE54" s="18" t="s">
         <v>154</v>
@@ -42507,7 +42663,7 @@
         <v>235</v>
       </c>
       <c r="CA54" s="18" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="CC54" s="18" t="s">
         <v>169</v>
@@ -42522,7 +42678,7 @@
         <v>212</v>
       </c>
       <c r="CJ54" s="18" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="CK54" s="18" t="s">
         <v>167</v>
@@ -42674,7 +42830,7 @@
       <c r="CH55" s="16"/>
       <c r="CI55" s="16"/>
       <c r="CJ55" s="16" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="CK55" s="16" t="s">
         <v>259</v>
@@ -42706,7 +42862,7 @@
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
       <c r="M56" s="12" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="N56" s="12"/>
       <c r="O56" s="12"/>
@@ -42875,7 +43031,7 @@
     </row>
     <row r="57" spans="1:135">
       <c r="A57" s="12" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B57" s="12"/>
       <c r="C57" s="16" t="s">

--- a/Testdata/TestData.xlsx
+++ b/Testdata/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="VaultActions" sheetId="13" r:id="rId1"/>
@@ -30773,7 +30773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CQ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
@@ -45558,8 +45558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F234"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="A193" sqref="A193:A218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -48269,7 +48269,7 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="5" t="s">
-        <v>659</v>
+        <v>728</v>
       </c>
       <c r="B193" s="8" t="s">
         <v>984</v>
@@ -48283,7 +48283,7 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="5" t="s">
-        <v>659</v>
+        <v>728</v>
       </c>
       <c r="B194" s="8" t="s">
         <v>986</v>
@@ -48297,7 +48297,7 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="5" t="s">
-        <v>659</v>
+        <v>728</v>
       </c>
       <c r="B195" s="8" t="s">
         <v>988</v>
@@ -48311,7 +48311,7 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="5" t="s">
-        <v>659</v>
+        <v>728</v>
       </c>
       <c r="B196" s="8" t="s">
         <v>990</v>
@@ -48325,7 +48325,7 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="5" t="s">
-        <v>659</v>
+        <v>728</v>
       </c>
       <c r="B197" s="8" t="s">
         <v>992</v>
@@ -48339,7 +48339,7 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="5" t="s">
-        <v>659</v>
+        <v>728</v>
       </c>
       <c r="B198" s="8" t="s">
         <v>994</v>
@@ -48353,7 +48353,7 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="5" t="s">
-        <v>659</v>
+        <v>728</v>
       </c>
       <c r="B199" s="8" t="s">
         <v>996</v>
@@ -48367,7 +48367,7 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="5" t="s">
-        <v>659</v>
+        <v>728</v>
       </c>
       <c r="B200" s="8" t="s">
         <v>998</v>
@@ -48381,7 +48381,7 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="5" t="s">
-        <v>659</v>
+        <v>728</v>
       </c>
       <c r="B201" s="8" t="s">
         <v>1000</v>
@@ -48395,7 +48395,7 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="5" t="s">
-        <v>659</v>
+        <v>728</v>
       </c>
       <c r="B202" s="8" t="s">
         <v>1002</v>
@@ -48409,7 +48409,7 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="5" t="s">
-        <v>659</v>
+        <v>728</v>
       </c>
       <c r="B203" s="8" t="s">
         <v>1004</v>
@@ -48423,7 +48423,7 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="5" t="s">
-        <v>659</v>
+        <v>728</v>
       </c>
       <c r="B204" s="8" t="s">
         <v>1006</v>
@@ -48437,7 +48437,7 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="5" t="s">
-        <v>659</v>
+        <v>728</v>
       </c>
       <c r="B205" s="8" t="s">
         <v>1008</v>
@@ -48451,7 +48451,7 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="5" t="s">
-        <v>659</v>
+        <v>728</v>
       </c>
       <c r="B206" s="8" t="s">
         <v>1010</v>
@@ -48465,7 +48465,7 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="5" t="s">
-        <v>659</v>
+        <v>728</v>
       </c>
       <c r="B207" s="8" t="s">
         <v>1012</v>
@@ -48479,7 +48479,7 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="5" t="s">
-        <v>659</v>
+        <v>728</v>
       </c>
       <c r="B208" s="8" t="s">
         <v>1014</v>
@@ -48493,7 +48493,7 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="5" t="s">
-        <v>659</v>
+        <v>728</v>
       </c>
       <c r="B209" s="8" t="s">
         <v>1016</v>
@@ -48507,7 +48507,7 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="5" t="s">
-        <v>659</v>
+        <v>728</v>
       </c>
       <c r="B210" s="8" t="s">
         <v>1018</v>
@@ -48521,7 +48521,7 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="5" t="s">
-        <v>659</v>
+        <v>728</v>
       </c>
       <c r="B211" s="8" t="s">
         <v>1020</v>
@@ -48535,7 +48535,7 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="5" t="s">
-        <v>659</v>
+        <v>728</v>
       </c>
       <c r="B212" s="8" t="s">
         <v>1022</v>
@@ -48549,7 +48549,7 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="5" t="s">
-        <v>659</v>
+        <v>728</v>
       </c>
       <c r="B213" s="8" t="s">
         <v>1024</v>
@@ -48563,7 +48563,7 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="5" t="s">
-        <v>659</v>
+        <v>728</v>
       </c>
       <c r="B214" s="8" t="s">
         <v>1026</v>
@@ -48577,7 +48577,7 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="5" t="s">
-        <v>659</v>
+        <v>728</v>
       </c>
       <c r="B215" s="8" t="s">
         <v>1028</v>
@@ -48591,7 +48591,7 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="5" t="s">
-        <v>659</v>
+        <v>728</v>
       </c>
       <c r="B216" s="8" t="s">
         <v>1030</v>
@@ -48605,7 +48605,7 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="5" t="s">
-        <v>659</v>
+        <v>728</v>
       </c>
       <c r="B217" s="8" t="s">
         <v>1032</v>
@@ -48619,7 +48619,7 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="5" t="s">
-        <v>659</v>
+        <v>728</v>
       </c>
       <c r="B218" s="8" t="s">
         <v>1034</v>
